--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1978584.534929734</v>
+        <v>1977847.012531035</v>
       </c>
     </row>
     <row r="7">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>260.939460248755</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>267.0526681243329</v>
+        <v>292.1492688429794</v>
       </c>
       <c r="H11" t="n">
         <v>210.5689976340753</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73160841495374</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.67916269170991</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.47994477460604</v>
       </c>
       <c r="U11" t="n">
         <v>129.2570343856665</v>
@@ -1430,13 +1430,13 @@
         <v>206.354646015987</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.3515414940222</v>
       </c>
       <c r="X11" t="n">
         <v>248.683023624637</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.5084962447035</v>
+        <v>164.5723152294286</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1449,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>160.7613043572756</v>
+        <v>83.57056745636649</v>
       </c>
       <c r="D12" t="n">
-        <v>23.93384806811318</v>
+        <v>23.93384806811321</v>
       </c>
       <c r="E12" t="n">
-        <v>33.85485820064144</v>
+        <v>33.85485820064147</v>
       </c>
       <c r="F12" t="n">
-        <v>21.32765657701691</v>
+        <v>21.32765657701694</v>
       </c>
       <c r="G12" t="n">
-        <v>13.56270707968249</v>
+        <v>13.56270707968252</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S12" t="n">
-        <v>41.54635653185666</v>
+        <v>41.54635653185667</v>
       </c>
       <c r="T12" t="n">
-        <v>75.06759025391867</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U12" t="n">
         <v>224.6386291975415</v>
@@ -1509,7 +1509,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>127.8107712434677</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.90511598415142</v>
+        <v>57.90511598415145</v>
       </c>
       <c r="C13" t="n">
-        <v>45.15797742466995</v>
+        <v>45.15797742466998</v>
       </c>
       <c r="D13" t="n">
-        <v>26.82699100798698</v>
+        <v>26.826991007987</v>
       </c>
       <c r="E13" t="n">
-        <v>24.79604866666679</v>
+        <v>24.79604866666682</v>
       </c>
       <c r="F13" t="n">
-        <v>23.98044590327211</v>
+        <v>23.98044590327214</v>
       </c>
       <c r="G13" t="n">
-        <v>45.47465477851327</v>
+        <v>45.4746547785133</v>
       </c>
       <c r="H13" t="n">
-        <v>37.35405327628412</v>
+        <v>37.35405327628415</v>
       </c>
       <c r="I13" t="n">
-        <v>24.47202221935808</v>
+        <v>24.4720222193581</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58502799526198</v>
+        <v>40.585027995262</v>
       </c>
       <c r="S13" t="n">
-        <v>96.0597448859389</v>
+        <v>96.05974488593891</v>
       </c>
       <c r="T13" t="n">
         <v>105.1439944560723</v>
       </c>
       <c r="U13" t="n">
-        <v>163.8608025948011</v>
+        <v>163.8608025948012</v>
       </c>
       <c r="V13" t="n">
         <v>130.7577755604068</v>
       </c>
       <c r="W13" t="n">
-        <v>163.9140013808831</v>
+        <v>163.9140013808832</v>
       </c>
       <c r="X13" t="n">
         <v>103.9617844257769</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.57009836123584</v>
+        <v>96.57009836123586</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5378344848626</v>
+        <v>239.1951003900436</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.426157248066</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.1152879740084</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>292.1492688429794</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5689976340753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73160841495367</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.67916269170985</v>
+        <v>71.67916269170991</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47994477460598</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>129.2570343856665</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3546460159869</v>
+        <v>206.354646015987</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.3515414940222</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.683023624637</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.22214947426213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.19355010381241</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>23.93384806811315</v>
+        <v>23.93384806811321</v>
       </c>
       <c r="E15" t="n">
-        <v>33.85485820064142</v>
+        <v>33.85485820064147</v>
       </c>
       <c r="F15" t="n">
-        <v>21.32765657701688</v>
+        <v>21.32765657701694</v>
       </c>
       <c r="G15" t="n">
-        <v>13.56270707968246</v>
+        <v>13.56270707968252</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S15" t="n">
-        <v>41.54635653185662</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T15" t="n">
-        <v>109.7911492894157</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U15" t="n">
         <v>224.6386291975415</v>
@@ -1746,13 +1746,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>127.8107712434677</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>82.28305410194591</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>116.2161349475517</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.90511598415139</v>
+        <v>57.90511598415145</v>
       </c>
       <c r="C16" t="n">
-        <v>45.15797742466992</v>
+        <v>45.15797742466998</v>
       </c>
       <c r="D16" t="n">
-        <v>26.82699100798695</v>
+        <v>26.826991007987</v>
       </c>
       <c r="E16" t="n">
-        <v>24.79604866666676</v>
+        <v>24.79604866666682</v>
       </c>
       <c r="F16" t="n">
-        <v>23.98044590327208</v>
+        <v>23.98044590327214</v>
       </c>
       <c r="G16" t="n">
-        <v>45.47465477851324</v>
+        <v>45.4746547785133</v>
       </c>
       <c r="H16" t="n">
-        <v>37.35405327628409</v>
+        <v>37.35405327628415</v>
       </c>
       <c r="I16" t="n">
-        <v>24.47202221935803</v>
+        <v>24.47202221935809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58502799526193</v>
+        <v>40.58502799526199</v>
       </c>
       <c r="S16" t="n">
-        <v>96.05974488593885</v>
+        <v>96.05974488593891</v>
       </c>
       <c r="T16" t="n">
-        <v>105.1439944560722</v>
+        <v>105.1439944560723</v>
       </c>
       <c r="U16" t="n">
-        <v>163.8608025948011</v>
+        <v>163.8608025948012</v>
       </c>
       <c r="V16" t="n">
-        <v>130.7577755604067</v>
+        <v>130.7577755604068</v>
       </c>
       <c r="W16" t="n">
-        <v>163.9140013808831</v>
+        <v>163.9140013808832</v>
       </c>
       <c r="X16" t="n">
-        <v>103.9617844257768</v>
+        <v>103.9617844257769</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.57009836123581</v>
+        <v>96.57009836123586</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.1543066784408</v>
+        <v>160.1543066784409</v>
       </c>
       <c r="C17" t="n">
         <v>143.4229923659884</v>
       </c>
       <c r="D17" t="n">
-        <v>133.0426294416441</v>
+        <v>133.0426294416442</v>
       </c>
       <c r="E17" t="n">
-        <v>159.5559324423332</v>
+        <v>159.5559324423333</v>
       </c>
       <c r="F17" t="n">
-        <v>183.7317601675866</v>
+        <v>183.7317601675876</v>
       </c>
       <c r="G17" t="n">
-        <v>190.7657410365575</v>
+        <v>190.7657410365576</v>
       </c>
       <c r="H17" t="n">
-        <v>109.1854698276534</v>
+        <v>109.1854698276535</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.87350657924463</v>
+        <v>27.87350657924471</v>
       </c>
       <c r="V17" t="n">
-        <v>104.9711182095651</v>
+        <v>104.9711182095652</v>
       </c>
       <c r="W17" t="n">
-        <v>126.9680136876018</v>
+        <v>126.9680136876004</v>
       </c>
       <c r="X17" t="n">
-        <v>147.2994958182151</v>
+        <v>147.2994958182152</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.1249684382815</v>
+        <v>163.1249684382816</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1929,10 +1929,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.25424627132848</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>57.4286414669102</v>
       </c>
       <c r="U18" t="n">
-        <v>1.076525884587254</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>26.42724343704586</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>159.5326287828165</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.760466649650376</v>
+        <v>201.3509527142426</v>
       </c>
       <c r="U19" t="n">
-        <v>62.47727478837927</v>
+        <v>62.47727478837935</v>
       </c>
       <c r="V19" t="n">
-        <v>29.37424775398489</v>
+        <v>29.37424775398497</v>
       </c>
       <c r="W19" t="n">
-        <v>100.5883308562373</v>
+        <v>62.53047357446135</v>
       </c>
       <c r="X19" t="n">
-        <v>2.578256619354988</v>
+        <v>2.578256619355074</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>160.1543066784408</v>
+        <v>160.1543066784409</v>
       </c>
       <c r="C20" t="n">
         <v>143.4229923659884</v>
       </c>
       <c r="D20" t="n">
-        <v>133.0426294416441</v>
+        <v>133.0426294416442</v>
       </c>
       <c r="E20" t="n">
-        <v>159.5559324423332</v>
+        <v>159.5559324423333</v>
       </c>
       <c r="F20" t="n">
-        <v>183.7317601675866</v>
+        <v>183.7317601675868</v>
       </c>
       <c r="G20" t="n">
-        <v>190.7657410365575</v>
+        <v>190.7657410365576</v>
       </c>
       <c r="H20" t="n">
-        <v>109.1854698276534</v>
+        <v>109.1854698276535</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.87350657924463</v>
+        <v>27.87350657924471</v>
       </c>
       <c r="V20" t="n">
-        <v>104.9711182095651</v>
+        <v>104.9711182095652</v>
       </c>
       <c r="W20" t="n">
-        <v>126.9680136876003</v>
+        <v>126.9680136876004</v>
       </c>
       <c r="X20" t="n">
-        <v>147.2994958182151</v>
+        <v>147.2994958182152</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.1249684382815</v>
+        <v>163.1249684382816</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T21" t="n">
-        <v>151.4688432643239</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U21" t="n">
         <v>224.6386291975415</v>
@@ -2220,13 +2220,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>26.42724343704586</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>138.7096749506392</v>
       </c>
     </row>
     <row r="22">
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>159.5326287828165</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>38.05785728177604</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.760466649650376</v>
+        <v>3.760466649650462</v>
       </c>
       <c r="U22" t="n">
-        <v>62.47727478837927</v>
+        <v>62.47727478837935</v>
       </c>
       <c r="V22" t="n">
-        <v>29.37424775398489</v>
+        <v>226.9647338185771</v>
       </c>
       <c r="W22" t="n">
-        <v>62.53047357446127</v>
+        <v>62.53047357446135</v>
       </c>
       <c r="X22" t="n">
-        <v>2.578256619354988</v>
+        <v>2.578256619355074</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160.1543066784408</v>
+        <v>160.1543066784409</v>
       </c>
       <c r="C23" t="n">
         <v>143.4229923659884</v>
       </c>
       <c r="D23" t="n">
-        <v>133.0426294416441</v>
+        <v>133.0426294416442</v>
       </c>
       <c r="E23" t="n">
-        <v>159.5559324423332</v>
+        <v>159.5559324423333</v>
       </c>
       <c r="F23" t="n">
-        <v>183.7317601675866</v>
+        <v>183.7317601675867</v>
       </c>
       <c r="G23" t="n">
-        <v>190.7657410365575</v>
+        <v>190.7657410365576</v>
       </c>
       <c r="H23" t="n">
-        <v>109.1854698276534</v>
+        <v>109.1854698276535</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.87350657924463</v>
+        <v>27.87350657924471</v>
       </c>
       <c r="V23" t="n">
-        <v>104.9711182095651</v>
+        <v>104.9711182095652</v>
       </c>
       <c r="W23" t="n">
-        <v>126.9680136876003</v>
+        <v>126.9680136876004</v>
       </c>
       <c r="X23" t="n">
-        <v>147.2994958182151</v>
+        <v>147.2994958182152</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.1249684382815</v>
+        <v>163.1249684382816</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>47.8741297568448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>123.3442819485265</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>107.7396882560888</v>
       </c>
       <c r="I24" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V24" t="n">
-        <v>8.346627726700859</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>51.43146465478804</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.760466649650376</v>
+        <v>3.760466649650462</v>
       </c>
       <c r="U25" t="n">
-        <v>62.47727478837927</v>
+        <v>62.47727478837935</v>
       </c>
       <c r="V25" t="n">
-        <v>29.37424775398489</v>
+        <v>226.9647338185771</v>
       </c>
       <c r="W25" t="n">
-        <v>62.53047357446127</v>
+        <v>62.53047357446135</v>
       </c>
       <c r="X25" t="n">
-        <v>2.578256619354988</v>
+        <v>2.578256619355074</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>224.9181799935063</v>
       </c>
       <c r="D26" t="n">
-        <v>214.537817069162</v>
+        <v>214.5378170691621</v>
       </c>
       <c r="E26" t="n">
         <v>241.0511200698511</v>
@@ -2573,7 +2573,7 @@
         <v>190.6806574551713</v>
       </c>
       <c r="I26" t="n">
-        <v>42.84326823604971</v>
+        <v>42.84326823604974</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.7908225128059</v>
+        <v>51.79082251280592</v>
       </c>
       <c r="T26" t="n">
-        <v>78.59160459570204</v>
+        <v>78.59160459570207</v>
       </c>
       <c r="U26" t="n">
-        <v>109.3686942067625</v>
+        <v>109.3686942067626</v>
       </c>
       <c r="V26" t="n">
         <v>186.466305837083</v>
       </c>
       <c r="W26" t="n">
-        <v>208.4632013151182</v>
+        <v>208.4632013151183</v>
       </c>
       <c r="X26" t="n">
-        <v>228.794683445733</v>
+        <v>228.7946834457331</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.6201560657994</v>
+        <v>244.6201560657995</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.30520992490847</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>28.95866824196466</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>14.55196571951177</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S27" t="n">
         <v>163.724932038389</v>
@@ -2688,7 +2688,7 @@
         <v>197.246165760451</v>
       </c>
       <c r="U27" t="n">
-        <v>93.47208323308907</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.01677580524745</v>
+        <v>38.01677580524748</v>
       </c>
       <c r="C28" t="n">
-        <v>25.26963724576598</v>
+        <v>25.26963724576601</v>
       </c>
       <c r="D28" t="n">
-        <v>6.938650829083002</v>
+        <v>6.938650829083031</v>
       </c>
       <c r="E28" t="n">
-        <v>4.907708487762818</v>
+        <v>4.907708487762847</v>
       </c>
       <c r="F28" t="n">
-        <v>4.092105724368139</v>
+        <v>4.092105724368167</v>
       </c>
       <c r="G28" t="n">
-        <v>25.5863145996093</v>
+        <v>25.58631459960932</v>
       </c>
       <c r="H28" t="n">
-        <v>17.46571309738015</v>
+        <v>17.46571309738017</v>
       </c>
       <c r="I28" t="n">
-        <v>4.583682040454089</v>
+        <v>4.583682040454118</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.69668781635799</v>
+        <v>20.69668781635801</v>
       </c>
       <c r="S28" t="n">
-        <v>76.17140470703491</v>
+        <v>76.17140470703494</v>
       </c>
       <c r="T28" t="n">
-        <v>85.25565427716829</v>
+        <v>85.25565427716832</v>
       </c>
       <c r="U28" t="n">
         <v>143.9724624158972</v>
@@ -2776,10 +2776,10 @@
         <v>144.0256612019792</v>
       </c>
       <c r="X28" t="n">
-        <v>84.0734442468729</v>
+        <v>84.07344424687292</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.68175818233186</v>
+        <v>76.68175818233189</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>224.9181799935063</v>
       </c>
       <c r="D29" t="n">
-        <v>214.5378170691621</v>
+        <v>214.537817069162</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0511200698512</v>
+        <v>241.0511200698511</v>
       </c>
       <c r="F29" t="n">
         <v>265.2269477951045</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2609286640755</v>
+        <v>272.2609286640754</v>
       </c>
       <c r="H29" t="n">
-        <v>190.6806574551714</v>
+        <v>190.6806574551713</v>
       </c>
       <c r="I29" t="n">
-        <v>42.84326823604978</v>
+        <v>42.84326823604972</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.79082251280595</v>
+        <v>51.7908225128059</v>
       </c>
       <c r="T29" t="n">
-        <v>78.59160459570209</v>
+        <v>78.59160459570204</v>
       </c>
       <c r="U29" t="n">
-        <v>109.3686942067626</v>
+        <v>109.3686942067625</v>
       </c>
       <c r="V29" t="n">
         <v>186.466305837083</v>
       </c>
       <c r="W29" t="n">
-        <v>208.4632013151183</v>
+        <v>208.4632013151182</v>
       </c>
       <c r="X29" t="n">
-        <v>228.7946834457331</v>
+        <v>228.794683445733</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.6201560657995</v>
+        <v>244.6201560657994</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>23.30520992490847</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>28.95866824196463</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.79682501022856</v>
+        <v>10.50645783030256</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S30" t="n">
-        <v>38.88401917315819</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T30" t="n">
         <v>197.246165760451</v>
@@ -2928,13 +2928,13 @@
         <v>224.6386291975415</v>
       </c>
       <c r="V30" t="n">
-        <v>89.84181535421882</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>62.39471392304196</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.01677580524751</v>
+        <v>38.01677580524745</v>
       </c>
       <c r="C31" t="n">
-        <v>25.26963724576603</v>
+        <v>25.26963724576598</v>
       </c>
       <c r="D31" t="n">
-        <v>6.938650829083059</v>
+        <v>6.938650829083002</v>
       </c>
       <c r="E31" t="n">
-        <v>4.907708487762875</v>
+        <v>4.907708487762818</v>
       </c>
       <c r="F31" t="n">
-        <v>4.092105724368196</v>
+        <v>4.092105724368139</v>
       </c>
       <c r="G31" t="n">
-        <v>25.58631459960935</v>
+        <v>25.5863145996093</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4657130973802</v>
+        <v>17.46571309738015</v>
       </c>
       <c r="I31" t="n">
-        <v>4.583682040454146</v>
+        <v>4.583682040454089</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.69668781635804</v>
+        <v>20.69668781635799</v>
       </c>
       <c r="S31" t="n">
-        <v>76.17140470703497</v>
+        <v>76.17140470703491</v>
       </c>
       <c r="T31" t="n">
-        <v>85.25565427716835</v>
+        <v>85.25565427716829</v>
       </c>
       <c r="U31" t="n">
         <v>143.9724624158972</v>
       </c>
       <c r="V31" t="n">
-        <v>110.8694353815029</v>
+        <v>110.8694353815028</v>
       </c>
       <c r="W31" t="n">
         <v>144.0256612019792</v>
       </c>
       <c r="X31" t="n">
-        <v>84.07344424687295</v>
+        <v>84.0734442468729</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.68175818233192</v>
+        <v>76.68175818233186</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.6494943059587</v>
+        <v>241.6494943059588</v>
       </c>
       <c r="C32" t="n">
-        <v>224.9181799935063</v>
+        <v>224.9181799935064</v>
       </c>
       <c r="D32" t="n">
         <v>214.5378170691621</v>
@@ -3038,7 +3038,7 @@
         <v>241.0511200698512</v>
       </c>
       <c r="F32" t="n">
-        <v>265.2269477951045</v>
+        <v>265.2269477951046</v>
       </c>
       <c r="G32" t="n">
         <v>272.2609286640755</v>
@@ -3047,7 +3047,7 @@
         <v>190.6806574551714</v>
       </c>
       <c r="I32" t="n">
-        <v>42.84326823604977</v>
+        <v>42.84326823604981</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.79082251280596</v>
+        <v>51.79082251280598</v>
       </c>
       <c r="T32" t="n">
-        <v>78.59160459570211</v>
+        <v>78.59160459570212</v>
       </c>
       <c r="U32" t="n">
         <v>109.3686942067626</v>
       </c>
       <c r="V32" t="n">
-        <v>186.466305837083</v>
+        <v>186.4663058370831</v>
       </c>
       <c r="W32" t="n">
         <v>208.4632013151183</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>145.3296320854687</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3117,16 +3117,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>1.439316398113021</v>
       </c>
       <c r="G33" t="n">
-        <v>45.22759715033159</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>107.7396882560888</v>
       </c>
       <c r="I33" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>21.65801635295273</v>
+        <v>21.65801635295276</v>
       </c>
       <c r="T33" t="n">
-        <v>55.17925007501474</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U33" t="n">
-        <v>82.57171351210522</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.01677580524751</v>
+        <v>38.01677580524753</v>
       </c>
       <c r="C34" t="n">
-        <v>25.26963724576603</v>
+        <v>25.26963724576606</v>
       </c>
       <c r="D34" t="n">
-        <v>6.938650829083059</v>
+        <v>6.938650829083088</v>
       </c>
       <c r="E34" t="n">
-        <v>4.907708487762875</v>
+        <v>4.907708487762903</v>
       </c>
       <c r="F34" t="n">
-        <v>4.092105724368196</v>
+        <v>4.092105724368224</v>
       </c>
       <c r="G34" t="n">
-        <v>25.58631459960935</v>
+        <v>25.58631459960938</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4657130973802</v>
+        <v>17.46571309738023</v>
       </c>
       <c r="I34" t="n">
-        <v>4.583682040454146</v>
+        <v>4.583682040454175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.69668781635804</v>
+        <v>20.69668781635807</v>
       </c>
       <c r="S34" t="n">
-        <v>76.17140470703497</v>
+        <v>76.17140470703499</v>
       </c>
       <c r="T34" t="n">
-        <v>85.25565427716835</v>
+        <v>85.25565427716838</v>
       </c>
       <c r="U34" t="n">
-        <v>143.9724624158972</v>
+        <v>143.9724624158973</v>
       </c>
       <c r="V34" t="n">
         <v>110.8694353815029</v>
       </c>
       <c r="W34" t="n">
-        <v>144.0256612019792</v>
+        <v>144.0256612019793</v>
       </c>
       <c r="X34" t="n">
-        <v>84.07344424687295</v>
+        <v>84.07344424687298</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.68175818233192</v>
+        <v>76.68175818233195</v>
       </c>
     </row>
     <row r="35">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -3357,10 +3357,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T36" t="n">
         <v>197.246165760451</v>
       </c>
       <c r="U36" t="n">
-        <v>37.33135921146098</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>8.729740320781218</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>181.3333820919162</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6532302850457</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>4.143579243730735</v>
       </c>
       <c r="U37" t="n">
-        <v>90.88208019160471</v>
+        <v>258.5353104766504</v>
       </c>
       <c r="V37" t="n">
         <v>29.75736034806525</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.25661917332499</v>
+        <v>28.25661917332496</v>
       </c>
       <c r="V38" t="n">
         <v>105.3542308036454</v>
       </c>
       <c r="W38" t="n">
-        <v>127.3511262816807</v>
+        <v>127.3511262816806</v>
       </c>
       <c r="X38" t="n">
         <v>147.6826084122955</v>
@@ -3585,22 +3585,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.19073690091014</v>
+        <v>46.32614188981405</v>
       </c>
       <c r="S39" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U39" t="n">
-        <v>1.459638478667613</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V39" t="n">
-        <v>60.00103689846056</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.6749230941909</v>
       </c>
       <c r="T40" t="n">
-        <v>4.143579243730735</v>
+        <v>4.143579243730707</v>
       </c>
       <c r="U40" t="n">
-        <v>62.86038738245963</v>
+        <v>62.8603873824596</v>
       </c>
       <c r="V40" t="n">
-        <v>29.75736034806525</v>
+        <v>29.75736034806522</v>
       </c>
       <c r="W40" t="n">
-        <v>62.91358616854163</v>
+        <v>62.9135861685416</v>
       </c>
       <c r="X40" t="n">
-        <v>2.961369213435347</v>
+        <v>2.961369213435319</v>
       </c>
       <c r="Y40" t="n">
-        <v>195.6749230941907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.77708961106045</v>
+        <v>30.77708961106048</v>
       </c>
       <c r="V41" t="n">
         <v>107.8747012413809</v>
       </c>
       <c r="W41" t="n">
-        <v>129.8715967194161</v>
+        <v>129.8715967194162</v>
       </c>
       <c r="X41" t="n">
-        <v>150.2030788500309</v>
+        <v>150.203078850031</v>
       </c>
       <c r="Y41" t="n">
         <v>166.0285514700974</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,19 +3825,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>25.08468878437725</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>163.724932038389</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U42" t="n">
-        <v>196.1952991280457</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.664049681466204</v>
+        <v>6.664049681466232</v>
       </c>
       <c r="U43" t="n">
-        <v>65.3808578201951</v>
+        <v>65.38085782019513</v>
       </c>
       <c r="V43" t="n">
-        <v>32.27783078580072</v>
+        <v>155.3815152670099</v>
       </c>
       <c r="W43" t="n">
-        <v>65.4340566062771</v>
+        <v>65.43405660627712</v>
       </c>
       <c r="X43" t="n">
-        <v>5.481839651170816</v>
+        <v>5.481839651170844</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.73601797431102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>163.0578897102567</v>
+        <v>163.0578897102566</v>
       </c>
       <c r="C44" t="n">
         <v>146.3265753978042</v>
@@ -3983,13 +3983,13 @@
         <v>135.94621247346</v>
       </c>
       <c r="E44" t="n">
-        <v>162.4595154741491</v>
+        <v>162.459515474149</v>
       </c>
       <c r="F44" t="n">
-        <v>186.6353431994025</v>
+        <v>186.6353431994024</v>
       </c>
       <c r="G44" t="n">
-        <v>193.6693240683734</v>
+        <v>193.669324068374</v>
       </c>
       <c r="H44" t="n">
         <v>112.0890528594693</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.77708961106052</v>
+        <v>30.77708961106048</v>
       </c>
       <c r="V44" t="n">
-        <v>107.874701241381</v>
+        <v>107.8747012413809</v>
       </c>
       <c r="W44" t="n">
         <v>129.8715967194162</v>
@@ -4059,13 +4059,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>44.35206855645619</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.7412825862149</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S45" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.246165760451</v>
@@ -4113,16 +4113,16 @@
         <v>224.6386291975415</v>
       </c>
       <c r="V45" t="n">
-        <v>152.2072961203285</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>29.33082646886166</v>
+        <v>29.33082646886163</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4177,28 +4177,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>123.1036844812091</v>
       </c>
       <c r="S46" t="n">
-        <v>183.0725709055131</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.664049681466261</v>
+        <v>6.664049681466232</v>
       </c>
       <c r="U46" t="n">
-        <v>65.38085782019516</v>
+        <v>65.38085782019513</v>
       </c>
       <c r="V46" t="n">
-        <v>32.27783078580077</v>
+        <v>32.27783078580075</v>
       </c>
       <c r="W46" t="n">
-        <v>65.43405660627715</v>
+        <v>65.43405660627712</v>
       </c>
       <c r="X46" t="n">
-        <v>5.481839651170873</v>
+        <v>5.481839651170844</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>843.4021834957091</v>
+        <v>541.8118118340299</v>
       </c>
       <c r="C11" t="n">
-        <v>843.4021834957091</v>
+        <v>541.8118118340299</v>
       </c>
       <c r="D11" t="n">
-        <v>843.4021834957091</v>
+        <v>541.8118118340299</v>
       </c>
       <c r="E11" t="n">
-        <v>579.8269711232292</v>
+        <v>541.8118118340299</v>
       </c>
       <c r="F11" t="n">
-        <v>579.8269711232292</v>
+        <v>541.8118118340299</v>
       </c>
       <c r="G11" t="n">
-        <v>310.0768013006707</v>
+        <v>246.7115402754649</v>
       </c>
       <c r="H11" t="n">
-        <v>97.380844094534</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I11" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J11" t="n">
-        <v>77.63744688178869</v>
+        <v>72.99365786263485</v>
       </c>
       <c r="K11" t="n">
-        <v>265.2919056666048</v>
+        <v>260.648116647451</v>
       </c>
       <c r="L11" t="n">
-        <v>550.0629334546384</v>
+        <v>545.4191444354847</v>
       </c>
       <c r="M11" t="n">
-        <v>882.1378652296539</v>
+        <v>877.4940762105003</v>
       </c>
       <c r="N11" t="n">
-        <v>1204.068941582172</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O11" t="n">
-        <v>1461.930976728513</v>
+        <v>1457.28718770936</v>
       </c>
       <c r="P11" t="n">
-        <v>1640.427675689727</v>
+        <v>1640.427675689728</v>
       </c>
       <c r="Q11" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R11" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S11" t="n">
-        <v>1700.77915346641</v>
+        <v>1628.37595882832</v>
       </c>
       <c r="T11" t="n">
-        <v>1700.77915346641</v>
+        <v>1528.901267136799</v>
       </c>
       <c r="U11" t="n">
-        <v>1570.216492470787</v>
+        <v>1398.338606141176</v>
       </c>
       <c r="V11" t="n">
-        <v>1361.777456091002</v>
+        <v>1189.899569761391</v>
       </c>
       <c r="W11" t="n">
-        <v>1361.777456091002</v>
+        <v>959.2414470401568</v>
       </c>
       <c r="X11" t="n">
-        <v>1110.582482732783</v>
+        <v>708.0464736819376</v>
       </c>
       <c r="Y11" t="n">
-        <v>843.4021834957091</v>
+        <v>541.8118118340299</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>290.0159611326915</v>
+        <v>212.045519818642</v>
       </c>
       <c r="C12" t="n">
-        <v>127.6308052162515</v>
+        <v>127.6308052162516</v>
       </c>
       <c r="D12" t="n">
-        <v>103.4552011070462</v>
+        <v>103.4552011070463</v>
       </c>
       <c r="E12" t="n">
-        <v>69.25837464175184</v>
+        <v>69.25837464175191</v>
       </c>
       <c r="F12" t="n">
-        <v>47.71528719021961</v>
+        <v>47.71528719021966</v>
       </c>
       <c r="G12" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H12" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I12" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J12" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K12" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="L12" t="n">
-        <v>342.6951984864743</v>
+        <v>280.667051693017</v>
       </c>
       <c r="M12" t="n">
-        <v>755.7099442761441</v>
+        <v>693.6817974826869</v>
       </c>
       <c r="N12" t="n">
-        <v>1114.624637965623</v>
+        <v>1114.624637965624</v>
       </c>
       <c r="O12" t="n">
-        <v>1448.911231781307</v>
+        <v>1448.911231781308</v>
       </c>
       <c r="P12" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="Q12" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R12" t="n">
-        <v>1700.77915346641</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S12" t="n">
-        <v>1658.813136767565</v>
+        <v>1580.842695453515</v>
       </c>
       <c r="T12" t="n">
-        <v>1582.987288026233</v>
+        <v>1381.604144180332</v>
       </c>
       <c r="U12" t="n">
-        <v>1356.07958176609</v>
+        <v>1154.69643792019</v>
       </c>
       <c r="V12" t="n">
-        <v>1121.828338291691</v>
+        <v>920.4451944457903</v>
       </c>
       <c r="W12" t="n">
-        <v>869.313846625024</v>
+        <v>791.3434053109745</v>
       </c>
       <c r="X12" t="n">
-        <v>662.7869480306015</v>
+        <v>584.816506716552</v>
       </c>
       <c r="Y12" t="n">
-        <v>457.0585122542519</v>
+        <v>379.0880709402024</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.3814348640263</v>
+        <v>264.3814348640267</v>
       </c>
       <c r="C13" t="n">
-        <v>218.7673162532487</v>
+        <v>218.767316253249</v>
       </c>
       <c r="D13" t="n">
-        <v>191.6693455381103</v>
+        <v>191.6693455381106</v>
       </c>
       <c r="E13" t="n">
-        <v>166.6228317333964</v>
+        <v>166.6228317333967</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4001591038286</v>
+        <v>142.4001591038288</v>
       </c>
       <c r="G13" t="n">
-        <v>96.46616437805758</v>
+        <v>96.46616437805778</v>
       </c>
       <c r="H13" t="n">
-        <v>58.73479743231616</v>
+        <v>58.73479743231621</v>
       </c>
       <c r="I13" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J13" t="n">
-        <v>83.56536698614737</v>
+        <v>83.5653669861473</v>
       </c>
       <c r="K13" t="n">
-        <v>217.0814624720377</v>
+        <v>217.0814624720375</v>
       </c>
       <c r="L13" t="n">
-        <v>409.9134546823797</v>
+        <v>409.9134546823795</v>
       </c>
       <c r="M13" t="n">
-        <v>617.2454674020862</v>
+        <v>617.245467402086</v>
       </c>
       <c r="N13" t="n">
-        <v>827.6649322725646</v>
+        <v>827.6649322725643</v>
       </c>
       <c r="O13" t="n">
         <v>1015.918385894576</v>
       </c>
       <c r="P13" t="n">
-        <v>1171.236616050933</v>
+        <v>1171.236616050932</v>
       </c>
       <c r="Q13" t="n">
         <v>1232.824208242338</v>
@@ -5224,25 +5224,25 @@
         <v>1191.829230469346</v>
       </c>
       <c r="S13" t="n">
-        <v>1094.799185130013</v>
+        <v>1094.799185130014</v>
       </c>
       <c r="T13" t="n">
-        <v>988.59313012388</v>
+        <v>988.5931301238805</v>
       </c>
       <c r="U13" t="n">
-        <v>823.0771679069092</v>
+        <v>823.0771679069098</v>
       </c>
       <c r="V13" t="n">
-        <v>690.9986067347811</v>
+        <v>690.9986067347817</v>
       </c>
       <c r="W13" t="n">
-        <v>525.4289083702527</v>
+        <v>525.4289083702532</v>
       </c>
       <c r="X13" t="n">
-        <v>420.417004909872</v>
+        <v>420.4170049098725</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.8714510096337</v>
+        <v>322.8714510096343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>893.1723132370217</v>
+        <v>565.9099528582631</v>
       </c>
       <c r="C14" t="n">
-        <v>893.1723132370217</v>
+        <v>565.9099528582631</v>
       </c>
       <c r="D14" t="n">
-        <v>893.1723132370217</v>
+        <v>329.1158546278933</v>
       </c>
       <c r="E14" t="n">
-        <v>893.1723132370217</v>
+        <v>329.1158546278933</v>
       </c>
       <c r="F14" t="n">
-        <v>605.1770728592354</v>
+        <v>329.1158546278933</v>
       </c>
       <c r="G14" t="n">
-        <v>310.0768013006704</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H14" t="n">
-        <v>97.38084409453393</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I14" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J14" t="n">
-        <v>77.63744688178878</v>
+        <v>77.6374468817888</v>
       </c>
       <c r="K14" t="n">
-        <v>265.291905666605</v>
+        <v>265.2919056666051</v>
       </c>
       <c r="L14" t="n">
-        <v>550.0629334546386</v>
+        <v>550.0629334546387</v>
       </c>
       <c r="M14" t="n">
-        <v>882.1378652296543</v>
+        <v>877.4940762105002</v>
       </c>
       <c r="N14" t="n">
-        <v>1204.068941582172</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O14" t="n">
-        <v>1461.930976728514</v>
+        <v>1457.28718770936</v>
       </c>
       <c r="P14" t="n">
-        <v>1640.427675689727</v>
+        <v>1640.427675689728</v>
       </c>
       <c r="Q14" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R14" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S14" t="n">
-        <v>1628.375958828319</v>
+        <v>1628.37595882832</v>
       </c>
       <c r="T14" t="n">
-        <v>1528.901267136798</v>
+        <v>1628.37595882832</v>
       </c>
       <c r="U14" t="n">
-        <v>1398.338606141175</v>
+        <v>1497.813297832698</v>
       </c>
       <c r="V14" t="n">
-        <v>1189.89956976139</v>
+        <v>1289.374261452913</v>
       </c>
       <c r="W14" t="n">
-        <v>1189.89956976139</v>
+        <v>1058.716138731678</v>
       </c>
       <c r="X14" t="n">
-        <v>1189.89956976139</v>
+        <v>807.5211653734586</v>
       </c>
       <c r="Y14" t="n">
-        <v>1157.351944029812</v>
+        <v>807.5211653734586</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300.3839202944342</v>
+        <v>300.3839202944344</v>
       </c>
       <c r="C15" t="n">
-        <v>127.6308052162514</v>
+        <v>127.6308052162516</v>
       </c>
       <c r="D15" t="n">
-        <v>103.4552011070462</v>
+        <v>103.4552011070463</v>
       </c>
       <c r="E15" t="n">
-        <v>69.25837464175179</v>
+        <v>69.25837464175191</v>
       </c>
       <c r="F15" t="n">
-        <v>47.71528719021958</v>
+        <v>47.71528719021966</v>
       </c>
       <c r="G15" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H15" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I15" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J15" t="n">
-        <v>67.77851149822685</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K15" t="n">
-        <v>252.0903470956159</v>
+        <v>218.3274186667172</v>
       </c>
       <c r="L15" t="n">
-        <v>560.769962512762</v>
+        <v>527.0070340838635</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7847083024319</v>
+        <v>576.8756943603786</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.492559650725</v>
+        <v>997.8185348433153</v>
       </c>
       <c r="O15" t="n">
-        <v>1700.77915346641</v>
+        <v>1332.105128659</v>
       </c>
       <c r="P15" t="n">
-        <v>1700.77915346641</v>
+        <v>1583.973050344103</v>
       </c>
       <c r="Q15" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.808712152359</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S15" t="n">
-        <v>1580.842695453514</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="T15" t="n">
-        <v>1469.942544656124</v>
+        <v>1258.191441648482</v>
       </c>
       <c r="U15" t="n">
-        <v>1243.034838395982</v>
+        <v>1031.283735388339</v>
       </c>
       <c r="V15" t="n">
-        <v>1008.783594921582</v>
+        <v>797.0324919139396</v>
       </c>
       <c r="W15" t="n">
-        <v>756.2691032549158</v>
+        <v>667.9307027791237</v>
       </c>
       <c r="X15" t="n">
-        <v>549.7422046604933</v>
+        <v>584.8165067165521</v>
       </c>
       <c r="Y15" t="n">
-        <v>344.0137688841437</v>
+        <v>467.4264714159949</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.3814348640263</v>
+        <v>264.3814348640267</v>
       </c>
       <c r="C16" t="n">
-        <v>218.7673162532486</v>
+        <v>218.7673162532489</v>
       </c>
       <c r="D16" t="n">
-        <v>191.6693455381102</v>
+        <v>191.6693455381105</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6228317333963</v>
+        <v>166.6228317333966</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4001591038286</v>
+        <v>142.4001591038288</v>
       </c>
       <c r="G16" t="n">
-        <v>96.46616437805761</v>
+        <v>96.46616437805775</v>
       </c>
       <c r="H16" t="n">
-        <v>58.73479743231611</v>
+        <v>58.7347974323162</v>
       </c>
       <c r="I16" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J16" t="n">
-        <v>83.56536698614735</v>
+        <v>83.56536698614731</v>
       </c>
       <c r="K16" t="n">
-        <v>217.0814624720377</v>
+        <v>217.0814624720376</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9134546823798</v>
+        <v>409.9134546823796</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2454674020864</v>
+        <v>617.2454674020862</v>
       </c>
       <c r="N16" t="n">
-        <v>827.6649322725648</v>
+        <v>827.6649322725646</v>
       </c>
       <c r="O16" t="n">
         <v>1015.918385894576</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.236616050933</v>
+        <v>1171.236616050932</v>
       </c>
       <c r="Q16" t="n">
         <v>1232.824208242338</v>
@@ -5461,25 +5461,25 @@
         <v>1191.829230469346</v>
       </c>
       <c r="S16" t="n">
-        <v>1094.799185130013</v>
+        <v>1094.799185130014</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5931301238799</v>
+        <v>988.5931301238805</v>
       </c>
       <c r="U16" t="n">
-        <v>823.077167906909</v>
+        <v>823.0771679069096</v>
       </c>
       <c r="V16" t="n">
-        <v>690.998606734781</v>
+        <v>690.9986067347816</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4289083702525</v>
+        <v>525.4289083702531</v>
       </c>
       <c r="X16" t="n">
-        <v>420.4170049098719</v>
+        <v>420.4170049098724</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.8714510096337</v>
+        <v>322.8714510096342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>963.0100530509072</v>
+        <v>963.0100530509081</v>
       </c>
       <c r="C17" t="n">
-        <v>818.138343590313</v>
+        <v>818.1383435903138</v>
       </c>
       <c r="D17" t="n">
-        <v>683.7518492048139</v>
+        <v>683.7518492048146</v>
       </c>
       <c r="E17" t="n">
-        <v>522.5842406772045</v>
+        <v>522.5842406772051</v>
       </c>
       <c r="F17" t="n">
-        <v>336.9966041442888</v>
+        <v>336.9966041442889</v>
       </c>
       <c r="G17" t="n">
-        <v>144.3039364305943</v>
+        <v>144.3039364305944</v>
       </c>
       <c r="H17" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I17" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J17" t="n">
-        <v>77.63744688178878</v>
+        <v>77.6374468817888</v>
       </c>
       <c r="K17" t="n">
-        <v>265.291905666605</v>
+        <v>265.2919056666051</v>
       </c>
       <c r="L17" t="n">
-        <v>550.0629334546386</v>
+        <v>550.0629334546387</v>
       </c>
       <c r="M17" t="n">
-        <v>882.1378652296543</v>
+        <v>877.4940762105002</v>
       </c>
       <c r="N17" t="n">
-        <v>1199.425152563017</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O17" t="n">
-        <v>1457.287187709358</v>
+        <v>1457.28718770936</v>
       </c>
       <c r="P17" t="n">
-        <v>1640.427675689727</v>
+        <v>1640.427675689728</v>
       </c>
       <c r="Q17" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R17" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S17" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T17" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="U17" t="n">
         <v>1672.624096315659</v>
       </c>
       <c r="V17" t="n">
-        <v>1566.592663780745</v>
+        <v>1566.592663780744</v>
       </c>
       <c r="W17" t="n">
-        <v>1438.342144904379</v>
+        <v>1438.34214490438</v>
       </c>
       <c r="X17" t="n">
-        <v>1289.554775391031</v>
+        <v>1289.554775391032</v>
       </c>
       <c r="Y17" t="n">
-        <v>1124.782079998827</v>
+        <v>1124.782079998828</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>555.6576916355392</v>
+        <v>499.3127947719503</v>
       </c>
       <c r="C18" t="n">
-        <v>382.9045765573564</v>
+        <v>326.5596796937675</v>
       </c>
       <c r="D18" t="n">
-        <v>235.3162699163003</v>
+        <v>178.9713730527114</v>
       </c>
       <c r="E18" t="n">
-        <v>77.70674091915495</v>
+        <v>178.9713730527114</v>
       </c>
       <c r="F18" t="n">
-        <v>77.70674091915495</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="G18" t="n">
-        <v>77.70674091915495</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H18" t="n">
-        <v>77.70674091915495</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I18" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J18" t="n">
-        <v>67.77851149822685</v>
+        <v>67.77851149822686</v>
       </c>
       <c r="K18" t="n">
         <v>252.0903470956159</v>
@@ -5601,43 +5601,43 @@
         <v>560.769962512762</v>
       </c>
       <c r="M18" t="n">
-        <v>576.8756943603778</v>
+        <v>973.7847083024319</v>
       </c>
       <c r="N18" t="n">
-        <v>997.8185348433142</v>
+        <v>997.8185348433153</v>
       </c>
       <c r="O18" t="n">
-        <v>1332.105128658999</v>
+        <v>1332.105128659</v>
       </c>
       <c r="P18" t="n">
-        <v>1583.973050344102</v>
+        <v>1583.973050344103</v>
       </c>
       <c r="Q18" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.808712152359</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.808712152359</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.808712152359</v>
+        <v>1399.42126416721</v>
       </c>
       <c r="U18" t="n">
-        <v>1621.721312268938</v>
+        <v>1172.513557907067</v>
       </c>
       <c r="V18" t="n">
-        <v>1387.470068794539</v>
+        <v>938.2623144326676</v>
       </c>
       <c r="W18" t="n">
-        <v>1134.955577127872</v>
+        <v>911.5681291427223</v>
       </c>
       <c r="X18" t="n">
-        <v>928.4286785334492</v>
+        <v>705.0412305482998</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.7002427570997</v>
+        <v>499.3127947719503</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>195.1596525469206</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="C19" t="n">
-        <v>195.1596525469206</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="D19" t="n">
-        <v>195.1596525469206</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="E19" t="n">
-        <v>195.1596525469206</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="F19" t="n">
-        <v>195.1596525469206</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="G19" t="n">
-        <v>195.1596525469206</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H19" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I19" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J19" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K19" t="n">
-        <v>46.57488880375148</v>
+        <v>46.5748888037515</v>
       </c>
       <c r="L19" t="n">
         <v>118.4500912626264</v>
@@ -5683,40 +5683,40 @@
         <v>204.825314230866</v>
       </c>
       <c r="N19" t="n">
-        <v>294.2879893498773</v>
+        <v>294.2879893498774</v>
       </c>
       <c r="O19" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204218</v>
       </c>
       <c r="P19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="R19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="S19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="T19" t="n">
-        <v>392.1476424640483</v>
+        <v>192.5612929038543</v>
       </c>
       <c r="U19" t="n">
-        <v>329.039284091948</v>
+        <v>129.4529345317539</v>
       </c>
       <c r="V19" t="n">
-        <v>299.3683267646906</v>
+        <v>99.78197720449634</v>
       </c>
       <c r="W19" t="n">
-        <v>197.7639521624307</v>
+        <v>36.6198826848384</v>
       </c>
       <c r="X19" t="n">
-        <v>195.1596525469206</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.1596525469206</v>
+        <v>34.01558306932822</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>963.0100530509075</v>
+        <v>963.0100530509079</v>
       </c>
       <c r="C20" t="n">
-        <v>818.1383435903132</v>
+        <v>818.1383435903135</v>
       </c>
       <c r="D20" t="n">
-        <v>683.7518492048141</v>
+        <v>683.7518492048143</v>
       </c>
       <c r="E20" t="n">
-        <v>522.5842406772048</v>
+        <v>522.584240677205</v>
       </c>
       <c r="F20" t="n">
         <v>336.996604144289</v>
       </c>
       <c r="G20" t="n">
-        <v>144.3039364305943</v>
+        <v>144.3039364305944</v>
       </c>
       <c r="H20" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I20" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J20" t="n">
-        <v>77.63744688178878</v>
+        <v>77.6374468817888</v>
       </c>
       <c r="K20" t="n">
-        <v>265.291905666605</v>
+        <v>265.2919056666051</v>
       </c>
       <c r="L20" t="n">
-        <v>550.0629334546386</v>
+        <v>545.4191444354846</v>
       </c>
       <c r="M20" t="n">
-        <v>882.1378652296543</v>
+        <v>877.4940762105002</v>
       </c>
       <c r="N20" t="n">
-        <v>1204.068941582172</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O20" t="n">
-        <v>1461.930976728514</v>
+        <v>1457.28718770936</v>
       </c>
       <c r="P20" t="n">
-        <v>1645.071464708882</v>
+        <v>1640.427675689728</v>
       </c>
       <c r="Q20" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R20" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S20" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="U20" t="n">
-        <v>1672.624096315658</v>
+        <v>1672.624096315659</v>
       </c>
       <c r="V20" t="n">
-        <v>1566.592663780743</v>
+        <v>1566.592663780744</v>
       </c>
       <c r="W20" t="n">
-        <v>1438.342144904379</v>
+        <v>1438.34214490438</v>
       </c>
       <c r="X20" t="n">
-        <v>1289.554775391031</v>
+        <v>1289.554775391032</v>
       </c>
       <c r="Y20" t="n">
-        <v>1124.782079998827</v>
+        <v>1124.782079998828</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>343.8811048002534</v>
+        <v>463.1849727240104</v>
       </c>
       <c r="C21" t="n">
-        <v>171.1279897220705</v>
+        <v>290.4318576458276</v>
       </c>
       <c r="D21" t="n">
-        <v>171.1279897220705</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="E21" t="n">
-        <v>171.1279897220705</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="F21" t="n">
-        <v>171.1279897220705</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="G21" t="n">
-        <v>34.0155830693282</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="H21" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I21" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J21" t="n">
-        <v>39.5435223635838</v>
+        <v>67.77851149822686</v>
       </c>
       <c r="K21" t="n">
-        <v>223.8553579609728</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="L21" t="n">
-        <v>532.534973378119</v>
+        <v>560.769962512762</v>
       </c>
       <c r="M21" t="n">
-        <v>945.5497191677889</v>
+        <v>973.7847083024319</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.492559650725</v>
+        <v>997.8185348433153</v>
       </c>
       <c r="O21" t="n">
-        <v>1700.77915346641</v>
+        <v>1332.105128659</v>
       </c>
       <c r="P21" t="n">
-        <v>1700.77915346641</v>
+        <v>1583.973050344103</v>
       </c>
       <c r="Q21" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.808712152359</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.808712152359</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="T21" t="n">
-        <v>1469.809880572234</v>
+        <v>1258.191441648482</v>
       </c>
       <c r="U21" t="n">
-        <v>1242.902174312091</v>
+        <v>1031.283735388339</v>
       </c>
       <c r="V21" t="n">
-        <v>1008.650930837692</v>
+        <v>797.0324919139396</v>
       </c>
       <c r="W21" t="n">
-        <v>756.1364391710254</v>
+        <v>770.3383066239943</v>
       </c>
       <c r="X21" t="n">
-        <v>549.6095405766029</v>
+        <v>770.3383066239943</v>
       </c>
       <c r="Y21" t="n">
-        <v>343.8811048002534</v>
+        <v>630.2275238455709</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="C22" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="D22" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="E22" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="F22" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="G22" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H22" t="n">
-        <v>72.45786315193027</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I22" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J22" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K22" t="n">
-        <v>46.57488880375148</v>
+        <v>46.5748888037515</v>
       </c>
       <c r="L22" t="n">
         <v>118.4500912626264</v>
@@ -5920,40 +5920,40 @@
         <v>204.825314230866</v>
       </c>
       <c r="N22" t="n">
-        <v>294.2879893498773</v>
+        <v>294.2879893498774</v>
       </c>
       <c r="O22" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204218</v>
       </c>
       <c r="P22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="R22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="S22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="T22" t="n">
         <v>392.1476424640483</v>
       </c>
       <c r="U22" t="n">
-        <v>329.039284091948</v>
+        <v>329.0392840919479</v>
       </c>
       <c r="V22" t="n">
-        <v>299.3683267646906</v>
+        <v>99.78197720449634</v>
       </c>
       <c r="W22" t="n">
-        <v>236.2062322450328</v>
+        <v>36.6198826848384</v>
       </c>
       <c r="X22" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="Y22" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
     </row>
     <row r="23">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>963.0100530509076</v>
+        <v>963.0100530509079</v>
       </c>
       <c r="C23" t="n">
-        <v>818.1383435903133</v>
+        <v>818.1383435903135</v>
       </c>
       <c r="D23" t="n">
-        <v>683.7518492048142</v>
+        <v>683.7518492048143</v>
       </c>
       <c r="E23" t="n">
-        <v>522.5842406772049</v>
+        <v>522.584240677205</v>
       </c>
       <c r="F23" t="n">
-        <v>336.9966041442891</v>
+        <v>336.9966041442892</v>
       </c>
       <c r="G23" t="n">
-        <v>144.3039364305943</v>
+        <v>144.3039364305944</v>
       </c>
       <c r="H23" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I23" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J23" t="n">
-        <v>72.99365786263354</v>
+        <v>77.6374468817888</v>
       </c>
       <c r="K23" t="n">
-        <v>260.6481166474498</v>
+        <v>260.6481166474509</v>
       </c>
       <c r="L23" t="n">
-        <v>545.4191444354834</v>
+        <v>545.4191444354846</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4940762104991</v>
+        <v>877.4940762105002</v>
       </c>
       <c r="N23" t="n">
-        <v>1199.425152563017</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O23" t="n">
-        <v>1457.287187709358</v>
+        <v>1457.28718770936</v>
       </c>
       <c r="P23" t="n">
-        <v>1640.427675689727</v>
+        <v>1640.427675689728</v>
       </c>
       <c r="Q23" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R23" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="S23" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="T23" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="U23" t="n">
-        <v>1672.624096315658</v>
+        <v>1672.624096315659</v>
       </c>
       <c r="V23" t="n">
         <v>1566.592663780744</v>
@@ -6029,7 +6029,7 @@
         <v>1438.34214490438</v>
       </c>
       <c r="X23" t="n">
-        <v>1289.554775391031</v>
+        <v>1289.554775391032</v>
       </c>
       <c r="Y23" t="n">
         <v>1124.782079998828</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>967.9130260063115</v>
+        <v>290.4318576458276</v>
       </c>
       <c r="C24" t="n">
-        <v>795.1599109281287</v>
+        <v>290.4318576458276</v>
       </c>
       <c r="D24" t="n">
-        <v>647.5716042870727</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="E24" t="n">
-        <v>489.9620752899274</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="F24" t="n">
-        <v>345.0062853065442</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="G24" t="n">
-        <v>220.4161015201538</v>
+        <v>142.8435510047715</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5881335847106</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I24" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J24" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K24" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="L24" t="n">
         <v>342.6951984864745</v>
       </c>
       <c r="M24" t="n">
-        <v>693.6817974826861</v>
+        <v>576.8756943603786</v>
       </c>
       <c r="N24" t="n">
-        <v>1114.624637965622</v>
+        <v>997.8185348433153</v>
       </c>
       <c r="O24" t="n">
-        <v>1448.911231781307</v>
+        <v>1332.105128659</v>
       </c>
       <c r="P24" t="n">
-        <v>1700.77915346641</v>
+        <v>1583.973050344103</v>
       </c>
       <c r="Q24" t="n">
-        <v>1700.77915346641</v>
+        <v>1700.779153466411</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.808712152359</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.808712152359</v>
+        <v>1457.429992921665</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.808712152359</v>
+        <v>1258.191441648482</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.901005892216</v>
+        <v>1031.283735388339</v>
       </c>
       <c r="V24" t="n">
-        <v>1387.470068794539</v>
+        <v>797.0324919139396</v>
       </c>
       <c r="W24" t="n">
-        <v>1134.955577127872</v>
+        <v>544.5180002472729</v>
       </c>
       <c r="X24" t="n">
-        <v>1134.955577127872</v>
+        <v>544.5180002472729</v>
       </c>
       <c r="Y24" t="n">
-        <v>1134.955577127872</v>
+        <v>338.7895644709233</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="C25" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="D25" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="E25" t="n">
-        <v>181.6509582307469</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="F25" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="G25" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="H25" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="I25" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="J25" t="n">
-        <v>34.0155830693282</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="K25" t="n">
-        <v>46.57488880375148</v>
+        <v>46.5748888037515</v>
       </c>
       <c r="L25" t="n">
         <v>118.4500912626264</v>
@@ -6157,40 +6157,40 @@
         <v>204.825314230866</v>
       </c>
       <c r="N25" t="n">
-        <v>294.2879893498773</v>
+        <v>294.2879893498774</v>
       </c>
       <c r="O25" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204218</v>
       </c>
       <c r="P25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="Q25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="R25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="S25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="T25" t="n">
         <v>392.1476424640483</v>
       </c>
       <c r="U25" t="n">
-        <v>329.039284091948</v>
+        <v>329.0392840919479</v>
       </c>
       <c r="V25" t="n">
-        <v>299.3683267646906</v>
+        <v>99.78197720449634</v>
       </c>
       <c r="W25" t="n">
-        <v>236.2062322450328</v>
+        <v>36.6198826848384</v>
       </c>
       <c r="X25" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
       <c r="Y25" t="n">
-        <v>233.6019326295227</v>
+        <v>34.01558306932822</v>
       </c>
     </row>
     <row r="26">
@@ -6209,19 +6209,19 @@
         <v>1080.031891782318</v>
       </c>
       <c r="E26" t="n">
-        <v>836.5459119137815</v>
+        <v>836.5459119137818</v>
       </c>
       <c r="F26" t="n">
-        <v>568.6399040399385</v>
+        <v>568.6399040399383</v>
       </c>
       <c r="G26" t="n">
-        <v>293.6288649853168</v>
+        <v>293.6288649853167</v>
       </c>
       <c r="H26" t="n">
         <v>101.0221402831235</v>
       </c>
       <c r="I26" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J26" t="n">
         <v>242.0142221029037</v>
@@ -6230,7 +6230,7 @@
         <v>570.3149274163019</v>
       </c>
       <c r="L26" t="n">
-        <v>995.7322017329175</v>
+        <v>995.732201732917</v>
       </c>
       <c r="M26" t="n">
         <v>1468.453380036515</v>
@@ -6239,25 +6239,25 @@
         <v>1931.030702917615</v>
       </c>
       <c r="O26" t="n">
-        <v>2329.538984592539</v>
+        <v>2329.538984592538</v>
       </c>
       <c r="P26" t="n">
-        <v>2653.325719101489</v>
+        <v>2653.325719101488</v>
       </c>
       <c r="Q26" t="n">
-        <v>2854.323443406754</v>
+        <v>2854.323443406753</v>
       </c>
       <c r="R26" t="n">
-        <v>2887.305588093057</v>
+        <v>2887.305588093056</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.99162595891</v>
+        <v>2834.991625958909</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.606166771332</v>
+        <v>2755.606166771331</v>
       </c>
       <c r="U26" t="n">
-        <v>2645.132738279653</v>
+        <v>2645.132738279652</v>
       </c>
       <c r="V26" t="n">
         <v>2456.782934403811</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>758.2254029770111</v>
+        <v>404.2615660570123</v>
       </c>
       <c r="C27" t="n">
-        <v>585.4722878988282</v>
+        <v>375.0103860146237</v>
       </c>
       <c r="D27" t="n">
-        <v>437.883981257772</v>
+        <v>360.3114307423896</v>
       </c>
       <c r="E27" t="n">
-        <v>280.2744522606267</v>
+        <v>202.7019017452443</v>
       </c>
       <c r="F27" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="I27" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J27" t="n">
         <v>91.50904019075978</v>
@@ -6327,28 +6327,28 @@
         <v>2139.820604768483</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.820604768483</v>
+        <v>2061.850163454432</v>
       </c>
       <c r="S27" t="n">
-        <v>1974.441885537787</v>
+        <v>1896.471444223736</v>
       </c>
       <c r="T27" t="n">
-        <v>1775.203334264604</v>
+        <v>1697.232892950554</v>
       </c>
       <c r="U27" t="n">
-        <v>1680.787088574615</v>
+        <v>1470.325186690411</v>
       </c>
       <c r="V27" t="n">
-        <v>1446.535845100216</v>
+        <v>1236.073943216011</v>
       </c>
       <c r="W27" t="n">
-        <v>1194.021353433549</v>
+        <v>983.5594515493448</v>
       </c>
       <c r="X27" t="n">
-        <v>987.4944548391268</v>
+        <v>777.0325529549223</v>
       </c>
       <c r="Y27" t="n">
-        <v>781.7660190627772</v>
+        <v>571.3041171785727</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.4873360289556</v>
+        <v>147.4873360289558</v>
       </c>
       <c r="C28" t="n">
-        <v>121.9624499221212</v>
+        <v>121.9624499221214</v>
       </c>
       <c r="D28" t="n">
-        <v>114.9537117109263</v>
+        <v>114.9537117109264</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9964304101558</v>
+        <v>109.9964304101559</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8629902845314</v>
+        <v>105.8629902845315</v>
       </c>
       <c r="G28" t="n">
-        <v>80.0182280627038</v>
+        <v>80.01822806270386</v>
       </c>
       <c r="H28" t="n">
-        <v>62.37609362090567</v>
+        <v>62.37609362090569</v>
       </c>
       <c r="I28" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9853524557952</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="K28" t="n">
-        <v>280.1909047188004</v>
+        <v>210.9516640248664</v>
       </c>
       <c r="L28" t="n">
-        <v>492.7123537062574</v>
+        <v>295.0614724834068</v>
       </c>
       <c r="M28" t="n">
-        <v>579.087576674497</v>
+        <v>522.0829419802283</v>
       </c>
       <c r="N28" t="n">
-        <v>668.5502517935083</v>
+        <v>752.1918636278216</v>
       </c>
       <c r="O28" t="n">
-        <v>735.8469156640527</v>
+        <v>819.488527498366</v>
       </c>
       <c r="P28" t="n">
-        <v>853.8499679032553</v>
+        <v>853.8499679032557</v>
       </c>
       <c r="Q28" t="n">
-        <v>935.1270168717763</v>
+        <v>935.1270168717766</v>
       </c>
       <c r="R28" t="n">
-        <v>914.2212716027278</v>
+        <v>914.2212716027282</v>
       </c>
       <c r="S28" t="n">
-        <v>837.280458767339</v>
+        <v>837.2804587673394</v>
       </c>
       <c r="T28" t="n">
-        <v>751.1636362651489</v>
+        <v>751.1636362651492</v>
       </c>
       <c r="U28" t="n">
-        <v>605.7369065521214</v>
+        <v>605.7369065521217</v>
       </c>
       <c r="V28" t="n">
-        <v>493.7475778839367</v>
+        <v>493.747577883937</v>
       </c>
       <c r="W28" t="n">
-        <v>348.2671120233517</v>
+        <v>348.267112023352</v>
       </c>
       <c r="X28" t="n">
-        <v>263.3444410669144</v>
+        <v>263.3444410669147</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.8881196706196</v>
+        <v>185.8881196706199</v>
       </c>
     </row>
     <row r="29">
@@ -6446,49 +6446,49 @@
         <v>1080.031891782318</v>
       </c>
       <c r="E29" t="n">
-        <v>836.5459119137815</v>
+        <v>836.5459119137813</v>
       </c>
       <c r="F29" t="n">
-        <v>568.6399040399385</v>
+        <v>568.6399040399384</v>
       </c>
       <c r="G29" t="n">
-        <v>293.6288649853168</v>
+        <v>293.6288649853167</v>
       </c>
       <c r="H29" t="n">
         <v>101.0221402831235</v>
       </c>
       <c r="I29" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J29" t="n">
-        <v>242.0142221029039</v>
+        <v>242.0142221029037</v>
       </c>
       <c r="K29" t="n">
-        <v>570.3149274163021</v>
+        <v>570.314927416302</v>
       </c>
       <c r="L29" t="n">
-        <v>995.7322017329177</v>
+        <v>995.7322017329166</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.453380036515</v>
+        <v>1468.453380036514</v>
       </c>
       <c r="N29" t="n">
-        <v>1931.030702917615</v>
+        <v>1931.030702917614</v>
       </c>
       <c r="O29" t="n">
-        <v>2329.538984592538</v>
+        <v>2329.538984592537</v>
       </c>
       <c r="P29" t="n">
-        <v>2653.325719101489</v>
+        <v>2653.325719101487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2854.323443406754</v>
+        <v>2854.323443406753</v>
       </c>
       <c r="R29" t="n">
-        <v>2887.305588093057</v>
+        <v>2887.305588093056</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.991625958909</v>
+        <v>2834.99162595891</v>
       </c>
       <c r="T29" t="n">
         <v>2755.606166771332</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>895.3378096297533</v>
+        <v>547.7635010928066</v>
       </c>
       <c r="C30" t="n">
-        <v>722.5846945515705</v>
+        <v>518.512321050418</v>
       </c>
       <c r="D30" t="n">
-        <v>574.9963879105143</v>
+        <v>370.9240144093619</v>
       </c>
       <c r="E30" t="n">
-        <v>417.386858913369</v>
+        <v>213.3144854122166</v>
       </c>
       <c r="F30" t="n">
-        <v>272.4310689299858</v>
+        <v>68.35869542883341</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3186622772435</v>
+        <v>68.35869542883341</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3186622772435</v>
+        <v>68.35869542883341</v>
       </c>
       <c r="I30" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J30" t="n">
         <v>91.50904019075978</v>
@@ -6564,28 +6564,28 @@
         <v>2139.820604768483</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.820604768483</v>
+        <v>2061.850163454432</v>
       </c>
       <c r="S30" t="n">
-        <v>2100.543817724889</v>
+        <v>1896.471444223736</v>
       </c>
       <c r="T30" t="n">
-        <v>1901.305266451706</v>
+        <v>1697.232892950554</v>
       </c>
       <c r="U30" t="n">
-        <v>1674.397560191563</v>
+        <v>1470.325186690411</v>
       </c>
       <c r="V30" t="n">
-        <v>1583.648251752958</v>
+        <v>1236.073943216011</v>
       </c>
       <c r="W30" t="n">
-        <v>1331.133760086291</v>
+        <v>983.5594515493448</v>
       </c>
       <c r="X30" t="n">
-        <v>1268.108796527663</v>
+        <v>777.0325529549223</v>
       </c>
       <c r="Y30" t="n">
-        <v>1062.380360751314</v>
+        <v>571.3041171785727</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.487336028956</v>
+        <v>147.4873360289556</v>
       </c>
       <c r="C31" t="n">
-        <v>121.9624499221216</v>
+        <v>121.9624499221212</v>
       </c>
       <c r="D31" t="n">
-        <v>114.9537117109266</v>
+        <v>114.9537117109263</v>
       </c>
       <c r="E31" t="n">
-        <v>109.996430410156</v>
+        <v>109.9964304101558</v>
       </c>
       <c r="F31" t="n">
-        <v>105.8629902845315</v>
+        <v>105.8629902845314</v>
       </c>
       <c r="G31" t="n">
-        <v>80.01822806270391</v>
+        <v>80.0182280627038</v>
       </c>
       <c r="H31" t="n">
-        <v>62.37609362090573</v>
+        <v>62.37609362090566</v>
       </c>
       <c r="I31" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186113</v>
       </c>
       <c r="J31" t="n">
-        <v>57.74611176186114</v>
+        <v>126.9853524557952</v>
       </c>
       <c r="K31" t="n">
-        <v>210.9516640248663</v>
+        <v>139.5446581902185</v>
       </c>
       <c r="L31" t="n">
-        <v>376.3385214519286</v>
+        <v>352.0661071776754</v>
       </c>
       <c r="M31" t="n">
-        <v>462.7137444201682</v>
+        <v>438.4413301459149</v>
       </c>
       <c r="N31" t="n">
-        <v>552.1764195391795</v>
+        <v>527.9040052649262</v>
       </c>
       <c r="O31" t="n">
-        <v>760.1193299383059</v>
+        <v>735.8469156640526</v>
       </c>
       <c r="P31" t="n">
-        <v>935.1270168717774</v>
+        <v>910.8546025975243</v>
       </c>
       <c r="Q31" t="n">
-        <v>935.1270168717774</v>
+        <v>935.1270168717763</v>
       </c>
       <c r="R31" t="n">
-        <v>914.2212716027288</v>
+        <v>914.2212716027278</v>
       </c>
       <c r="S31" t="n">
-        <v>837.28045876734</v>
+        <v>837.280458767339</v>
       </c>
       <c r="T31" t="n">
-        <v>751.1636362651496</v>
+        <v>751.1636362651489</v>
       </c>
       <c r="U31" t="n">
-        <v>605.7369065521222</v>
+        <v>605.7369065521214</v>
       </c>
       <c r="V31" t="n">
-        <v>493.7475778839374</v>
+        <v>493.7475778839367</v>
       </c>
       <c r="W31" t="n">
-        <v>348.2671120233523</v>
+        <v>348.2671120233517</v>
       </c>
       <c r="X31" t="n">
-        <v>263.344441066915</v>
+        <v>263.3444410669144</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.8881196706201</v>
+        <v>185.8881196706196</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>1523.926838310266</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.736757508744</v>
+        <v>1296.736757508745</v>
       </c>
       <c r="D32" t="n">
-        <v>1080.031891782318</v>
+        <v>1080.031891782319</v>
       </c>
       <c r="E32" t="n">
-        <v>836.5459119137813</v>
+        <v>836.545911913782</v>
       </c>
       <c r="F32" t="n">
-        <v>568.6399040399383</v>
+        <v>568.639904039939</v>
       </c>
       <c r="G32" t="n">
-        <v>293.6288649853168</v>
+        <v>293.6288649853173</v>
       </c>
       <c r="H32" t="n">
-        <v>101.0221402831235</v>
+        <v>101.0221402831236</v>
       </c>
       <c r="I32" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J32" t="n">
-        <v>242.0142221029036</v>
+        <v>242.0142221029034</v>
       </c>
       <c r="K32" t="n">
-        <v>570.3149274163019</v>
+        <v>570.3149274163017</v>
       </c>
       <c r="L32" t="n">
-        <v>995.7322017329175</v>
+        <v>995.7322017329172</v>
       </c>
       <c r="M32" t="n">
         <v>1468.453380036515</v>
@@ -6725,7 +6725,7 @@
         <v>2887.305588093057</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.991625958909</v>
+        <v>2834.99162595891</v>
       </c>
       <c r="T32" t="n">
         <v>2755.606166771332</v>
@@ -6740,10 +6740,10 @@
         <v>2246.21404418652</v>
       </c>
       <c r="X32" t="n">
-        <v>2015.108303332244</v>
+        <v>2015.108303332245</v>
       </c>
       <c r="Y32" t="n">
-        <v>1768.017236599113</v>
+        <v>1768.017236599114</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>912.7378124784456</v>
+        <v>645.9788853612775</v>
       </c>
       <c r="C33" t="n">
-        <v>739.9846974002628</v>
+        <v>473.2257702830947</v>
       </c>
       <c r="D33" t="n">
-        <v>592.3963907592067</v>
+        <v>325.6374636420386</v>
       </c>
       <c r="E33" t="n">
-        <v>434.7868617620614</v>
+        <v>168.0279346448933</v>
       </c>
       <c r="F33" t="n">
-        <v>289.8310717786783</v>
+        <v>166.5740796973044</v>
       </c>
       <c r="G33" t="n">
-        <v>244.1466302126868</v>
+        <v>166.5740796973044</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3186622772435</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="I33" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J33" t="n">
-        <v>91.50904019075978</v>
+        <v>91.50904019075981</v>
       </c>
       <c r="K33" t="n">
         <v>275.8208757881488</v>
@@ -6807,22 +6807,22 @@
         <v>2117.943820573581</v>
       </c>
       <c r="T33" t="n">
-        <v>2062.207204336193</v>
+        <v>1918.705269300399</v>
       </c>
       <c r="U33" t="n">
-        <v>1978.801433111844</v>
+        <v>1691.797563040256</v>
       </c>
       <c r="V33" t="n">
-        <v>1744.550189637445</v>
+        <v>1457.546319565856</v>
       </c>
       <c r="W33" t="n">
-        <v>1492.035697970778</v>
+        <v>1205.03182789919</v>
       </c>
       <c r="X33" t="n">
-        <v>1285.508799376355</v>
+        <v>998.5049293047672</v>
       </c>
       <c r="Y33" t="n">
-        <v>1079.780363600006</v>
+        <v>792.7764935284176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.487336028956</v>
+        <v>147.4873360289562</v>
       </c>
       <c r="C34" t="n">
-        <v>121.9624499221216</v>
+        <v>121.9624499221217</v>
       </c>
       <c r="D34" t="n">
-        <v>114.9537117109266</v>
+        <v>114.9537117109267</v>
       </c>
       <c r="E34" t="n">
-        <v>109.996430410156</v>
+        <v>109.9964304101561</v>
       </c>
       <c r="F34" t="n">
-        <v>105.8629902845315</v>
+        <v>105.8629902845316</v>
       </c>
       <c r="G34" t="n">
-        <v>80.01822806270391</v>
+        <v>80.01822806270398</v>
       </c>
       <c r="H34" t="n">
-        <v>62.37609362090573</v>
+        <v>62.37609362090577</v>
       </c>
       <c r="I34" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J34" t="n">
-        <v>57.74611176186114</v>
+        <v>126.9853524557951</v>
       </c>
       <c r="K34" t="n">
-        <v>210.9516640248663</v>
+        <v>223.1862700245332</v>
       </c>
       <c r="L34" t="n">
-        <v>295.0614724834077</v>
+        <v>435.7077190119901</v>
       </c>
       <c r="M34" t="n">
-        <v>522.0829419802292</v>
+        <v>522.0829419802296</v>
       </c>
       <c r="N34" t="n">
-        <v>752.1918636278224</v>
+        <v>611.545617099241</v>
       </c>
       <c r="O34" t="n">
-        <v>819.4885274983668</v>
+        <v>819.4885274983673</v>
       </c>
       <c r="P34" t="n">
-        <v>853.8499679032565</v>
+        <v>853.8499679032569</v>
       </c>
       <c r="Q34" t="n">
-        <v>935.1270168717774</v>
+        <v>935.1270168717778</v>
       </c>
       <c r="R34" t="n">
-        <v>914.2212716027288</v>
+        <v>914.2212716027292</v>
       </c>
       <c r="S34" t="n">
-        <v>837.28045876734</v>
+        <v>837.2804587673403</v>
       </c>
       <c r="T34" t="n">
-        <v>751.1636362651496</v>
+        <v>751.16363626515</v>
       </c>
       <c r="U34" t="n">
-        <v>605.7369065521222</v>
+        <v>605.7369065521225</v>
       </c>
       <c r="V34" t="n">
-        <v>493.7475778839374</v>
+        <v>493.7475778839377</v>
       </c>
       <c r="W34" t="n">
-        <v>348.2671120233523</v>
+        <v>348.2671120233526</v>
       </c>
       <c r="X34" t="n">
-        <v>263.344441066915</v>
+        <v>263.3444410669152</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.8881196706201</v>
+        <v>185.8881196706203</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.426718764958</v>
+        <v>965.4267187649575</v>
       </c>
       <c r="C35" t="n">
-        <v>820.1680268861006</v>
+        <v>820.1680268861005</v>
       </c>
       <c r="D35" t="n">
         <v>685.3945500823385</v>
@@ -6923,7 +6923,7 @@
         <v>523.8399591364662</v>
       </c>
       <c r="F35" t="n">
-        <v>337.8653401852873</v>
+        <v>337.8653401852875</v>
       </c>
       <c r="G35" t="n">
         <v>144.7856900533299</v>
@@ -6935,25 +6935,25 @@
         <v>34.11035427380077</v>
       </c>
       <c r="J35" t="n">
-        <v>77.73221808626134</v>
+        <v>77.73221808626147</v>
       </c>
       <c r="K35" t="n">
-        <v>265.3866768710776</v>
+        <v>265.3866768710777</v>
       </c>
       <c r="L35" t="n">
-        <v>550.1577046591112</v>
+        <v>550.1577046591113</v>
       </c>
       <c r="M35" t="n">
-        <v>882.2326364341269</v>
+        <v>882.232636434127</v>
       </c>
       <c r="N35" t="n">
         <v>1204.163712786645</v>
       </c>
       <c r="O35" t="n">
-        <v>1462.025747932986</v>
+        <v>1462.025747932987</v>
       </c>
       <c r="P35" t="n">
-        <v>1645.166235913354</v>
+        <v>1645.166235913355</v>
       </c>
       <c r="Q35" t="n">
         <v>1705.517713690038</v>
@@ -6971,7 +6971,7 @@
         <v>1676.975674121023</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.557259167846</v>
+        <v>1570.557259167845</v>
       </c>
       <c r="W35" t="n">
         <v>1441.919757873219</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.2355339118661</v>
+        <v>463.7668575509824</v>
       </c>
       <c r="C36" t="n">
-        <v>435.4824188336833</v>
+        <v>463.7668575509824</v>
       </c>
       <c r="D36" t="n">
-        <v>287.8941121926272</v>
+        <v>316.1785509099262</v>
       </c>
       <c r="E36" t="n">
-        <v>287.8941121926272</v>
+        <v>316.1785509099262</v>
       </c>
       <c r="F36" t="n">
-        <v>142.938322209244</v>
+        <v>171.2227609265431</v>
       </c>
       <c r="G36" t="n">
-        <v>142.938322209244</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="H36" t="n">
         <v>34.11035427380077</v>
@@ -7014,25 +7014,25 @@
         <v>34.11035427380077</v>
       </c>
       <c r="J36" t="n">
-        <v>34.11035427380077</v>
+        <v>67.87328270269941</v>
       </c>
       <c r="K36" t="n">
-        <v>218.4221898711898</v>
+        <v>167.426715138988</v>
       </c>
       <c r="L36" t="n">
-        <v>527.101805288336</v>
+        <v>167.426715138988</v>
       </c>
       <c r="M36" t="n">
-        <v>940.1165510780058</v>
+        <v>580.4414609286579</v>
       </c>
       <c r="N36" t="n">
-        <v>1362.23218521629</v>
+        <v>1002.557095066942</v>
       </c>
       <c r="O36" t="n">
-        <v>1696.518779031975</v>
+        <v>1336.843688882627</v>
       </c>
       <c r="P36" t="n">
-        <v>1705.517713690038</v>
+        <v>1588.71161056773</v>
       </c>
       <c r="Q36" t="n">
         <v>1705.517713690038</v>
@@ -7041,25 +7041,25 @@
         <v>1705.517713690038</v>
       </c>
       <c r="S36" t="n">
-        <v>1705.517713690038</v>
+        <v>1540.138994459342</v>
       </c>
       <c r="T36" t="n">
-        <v>1506.279162416855</v>
+        <v>1340.900443186159</v>
       </c>
       <c r="U36" t="n">
-        <v>1468.570718768915</v>
+        <v>1113.992736926016</v>
       </c>
       <c r="V36" t="n">
-        <v>1234.319475294516</v>
+        <v>1105.174817410076</v>
       </c>
       <c r="W36" t="n">
-        <v>981.8049836278491</v>
+        <v>852.6603257434089</v>
       </c>
       <c r="X36" t="n">
-        <v>775.2780850334266</v>
+        <v>669.4952933273319</v>
       </c>
       <c r="Y36" t="n">
-        <v>775.2780850334266</v>
+        <v>463.7668575509824</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.4570515314226</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="C37" t="n">
-        <v>203.4570515314226</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="D37" t="n">
-        <v>203.4570515314226</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="E37" t="n">
-        <v>203.4570515314226</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="F37" t="n">
-        <v>203.4570515314226</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="G37" t="n">
         <v>34.11035427380077</v>
@@ -7126,19 +7126,19 @@
         <v>391.8554312502579</v>
       </c>
       <c r="U37" t="n">
-        <v>300.055350248637</v>
+        <v>130.7086529910151</v>
       </c>
       <c r="V37" t="n">
-        <v>269.9974105031166</v>
+        <v>100.6507132454947</v>
       </c>
       <c r="W37" t="n">
-        <v>206.4483335651957</v>
+        <v>37.10163630757384</v>
       </c>
       <c r="X37" t="n">
-        <v>203.4570515314226</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.4570515314226</v>
+        <v>34.11035427380077</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4267187649575</v>
+        <v>965.4267187649581</v>
       </c>
       <c r="C38" t="n">
-        <v>820.1680268861003</v>
+        <v>820.1680268861008</v>
       </c>
       <c r="D38" t="n">
-        <v>685.3945500823381</v>
+        <v>685.3945500823388</v>
       </c>
       <c r="E38" t="n">
-        <v>523.8399591364658</v>
+        <v>523.8399591364665</v>
       </c>
       <c r="F38" t="n">
-        <v>337.8653401852871</v>
+        <v>337.8653401852878</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7856900533299</v>
+        <v>144.7856900533298</v>
       </c>
       <c r="H38" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="I38" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="J38" t="n">
-        <v>77.73221808626135</v>
+        <v>77.73221808626134</v>
       </c>
       <c r="K38" t="n">
-        <v>265.3866768710775</v>
+        <v>265.3866768710776</v>
       </c>
       <c r="L38" t="n">
         <v>550.1577046591112</v>
       </c>
       <c r="M38" t="n">
-        <v>882.2326364341268</v>
+        <v>882.2326364341269</v>
       </c>
       <c r="N38" t="n">
         <v>1204.163712786645</v>
@@ -7208,10 +7208,10 @@
         <v>1676.975674121023</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.557259167845</v>
+        <v>1570.557259167846</v>
       </c>
       <c r="W38" t="n">
-        <v>1441.919757873218</v>
+        <v>1441.919757873219</v>
       </c>
       <c r="X38" t="n">
         <v>1292.745405941607</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>980.5300200771362</v>
+        <v>206.8634693519836</v>
       </c>
       <c r="C39" t="n">
-        <v>807.7769049989533</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="D39" t="n">
-        <v>660.1885983578971</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="E39" t="n">
-        <v>502.5790693607519</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="F39" t="n">
-        <v>357.6232793773687</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="G39" t="n">
-        <v>220.5108727246264</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="H39" t="n">
-        <v>111.6829047891831</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="I39" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="J39" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="K39" t="n">
-        <v>34.11035427380075</v>
+        <v>218.4221898711898</v>
       </c>
       <c r="L39" t="n">
-        <v>342.789969690947</v>
+        <v>527.101805288336</v>
       </c>
       <c r="M39" t="n">
-        <v>755.8047154806169</v>
+        <v>580.4414609286579</v>
       </c>
       <c r="N39" t="n">
-        <v>1177.920349618901</v>
+        <v>1002.557095066942</v>
       </c>
       <c r="O39" t="n">
-        <v>1512.206943434586</v>
+        <v>1336.843688882627</v>
       </c>
       <c r="P39" t="n">
-        <v>1705.517713690038</v>
+        <v>1588.71161056773</v>
       </c>
       <c r="Q39" t="n">
         <v>1705.517713690038</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.547272375987</v>
+        <v>1658.723630973054</v>
       </c>
       <c r="S39" t="n">
-        <v>1462.168553145291</v>
+        <v>1493.344911742358</v>
       </c>
       <c r="T39" t="n">
-        <v>1462.168553145291</v>
+        <v>1294.106360469175</v>
       </c>
       <c r="U39" t="n">
-        <v>1460.694170843606</v>
+        <v>1067.198654209032</v>
       </c>
       <c r="V39" t="n">
-        <v>1400.087062865363</v>
+        <v>832.9474107346332</v>
       </c>
       <c r="W39" t="n">
-        <v>1147.572571198697</v>
+        <v>580.4329190679665</v>
       </c>
       <c r="X39" t="n">
-        <v>1147.572571198697</v>
+        <v>373.906020473544</v>
       </c>
       <c r="Y39" t="n">
-        <v>1147.572571198697</v>
+        <v>373.906020473544</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="C40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="D40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="E40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="F40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="G40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="H40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="I40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="J40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="K40" t="n">
-        <v>46.66966000822403</v>
+        <v>46.66966000822404</v>
       </c>
       <c r="L40" t="n">
         <v>118.544862467099</v>
@@ -7357,25 +7357,25 @@
         <v>396.0408648297839</v>
       </c>
       <c r="S40" t="n">
-        <v>396.0408648297839</v>
+        <v>198.3894273609043</v>
       </c>
       <c r="T40" t="n">
-        <v>391.8554312502579</v>
+        <v>194.2039937813783</v>
       </c>
       <c r="U40" t="n">
-        <v>328.3600904598946</v>
+        <v>130.708652991015</v>
       </c>
       <c r="V40" t="n">
-        <v>298.3021507143742</v>
+        <v>100.6507132454946</v>
       </c>
       <c r="W40" t="n">
-        <v>234.7530737764534</v>
+        <v>37.10163630757381</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7617917426803</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.325790171823</v>
+        <v>981.3257901718234</v>
       </c>
       <c r="C41" t="n">
-        <v>833.5211685578795</v>
+        <v>833.5211685578797</v>
       </c>
       <c r="D41" t="n">
         <v>696.2017620190313</v>
@@ -7397,34 +7397,34 @@
         <v>532.1012413380727</v>
       </c>
       <c r="F41" t="n">
-        <v>343.5806926518076</v>
+        <v>343.5806926518075</v>
       </c>
       <c r="G41" t="n">
         <v>147.9551127847639</v>
       </c>
       <c r="H41" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I41" t="n">
-        <v>65.28500409118543</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J41" t="n">
-        <v>108.906867903646</v>
+        <v>78.35571108260902</v>
       </c>
       <c r="K41" t="n">
-        <v>296.5613266884623</v>
+        <v>296.5613266884618</v>
       </c>
       <c r="L41" t="n">
-        <v>581.3323544764959</v>
+        <v>581.3323544764954</v>
       </c>
       <c r="M41" t="n">
-        <v>913.4072862515116</v>
+        <v>913.4072862515111</v>
       </c>
       <c r="N41" t="n">
-        <v>1235.33836260403</v>
+        <v>1235.338362604029</v>
       </c>
       <c r="O41" t="n">
-        <v>1493.200397750371</v>
+        <v>1493.20039775037</v>
       </c>
       <c r="P41" t="n">
         <v>1676.340885730739</v>
@@ -7448,13 +7448,13 @@
         <v>1596.640049515057</v>
       </c>
       <c r="W41" t="n">
-        <v>1465.456618485343</v>
+        <v>1465.456618485344</v>
       </c>
       <c r="X41" t="n">
-        <v>1313.736336818645</v>
+        <v>1313.736336818646</v>
       </c>
       <c r="Y41" t="n">
-        <v>1146.030729273092</v>
+        <v>1146.030729273093</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>808.4003979953009</v>
+        <v>207.6602233903735</v>
       </c>
       <c r="C42" t="n">
-        <v>808.4003979953009</v>
+        <v>207.6602233903735</v>
       </c>
       <c r="D42" t="n">
-        <v>660.8120913542448</v>
+        <v>60.07191674931738</v>
       </c>
       <c r="E42" t="n">
-        <v>503.2025623570995</v>
+        <v>60.07191674931738</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2467723737164</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="G42" t="n">
-        <v>221.1343657209741</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="H42" t="n">
-        <v>112.3063977855308</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I42" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J42" t="n">
-        <v>34.73384727014845</v>
+        <v>68.49677569904708</v>
       </c>
       <c r="K42" t="n">
-        <v>34.73384727014845</v>
+        <v>252.8086112964361</v>
       </c>
       <c r="L42" t="n">
-        <v>343.4134626872947</v>
+        <v>561.4882267135823</v>
       </c>
       <c r="M42" t="n">
-        <v>756.4282084769645</v>
+        <v>603.9003849162393</v>
       </c>
       <c r="N42" t="n">
-        <v>1186.259568445052</v>
+        <v>1033.731744884326</v>
       </c>
       <c r="O42" t="n">
-        <v>1520.546162260736</v>
+        <v>1368.018338700011</v>
       </c>
       <c r="P42" t="n">
-        <v>1736.692363507422</v>
+        <v>1619.886260385114</v>
       </c>
       <c r="Q42" t="n">
         <v>1736.692363507422</v>
       </c>
       <c r="R42" t="n">
-        <v>1658.721922193372</v>
+        <v>1658.721922193371</v>
       </c>
       <c r="S42" t="n">
-        <v>1493.343202962676</v>
+        <v>1493.343202962675</v>
       </c>
       <c r="T42" t="n">
-        <v>1493.343202962676</v>
+        <v>1294.104651689492</v>
       </c>
       <c r="U42" t="n">
-        <v>1295.166133136367</v>
+        <v>1067.196945429349</v>
       </c>
       <c r="V42" t="n">
-        <v>1060.914889661968</v>
+        <v>832.9457019549502</v>
       </c>
       <c r="W42" t="n">
-        <v>808.4003979953009</v>
+        <v>580.4312102882835</v>
       </c>
       <c r="X42" t="n">
-        <v>808.4003979953009</v>
+        <v>580.4312102882835</v>
       </c>
       <c r="Y42" t="n">
-        <v>808.4003979953009</v>
+        <v>374.702774511934</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>203.7606684127771</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="C43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="D43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="E43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="F43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="G43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="H43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J43" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="K43" t="n">
-        <v>47.29315300457173</v>
+        <v>47.29315300457171</v>
       </c>
       <c r="L43" t="n">
         <v>119.1683554634467</v>
@@ -7588,31 +7588,31 @@
         <v>396.6643578261316</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.6643578261316</v>
+        <v>336.0897250743093</v>
       </c>
       <c r="R43" t="n">
-        <v>396.6643578261316</v>
+        <v>336.0897250743093</v>
       </c>
       <c r="S43" t="n">
-        <v>396.6643578261316</v>
+        <v>336.0897250743093</v>
       </c>
       <c r="T43" t="n">
-        <v>389.9329945115193</v>
+        <v>329.3583617596969</v>
       </c>
       <c r="U43" t="n">
-        <v>323.8917239860697</v>
+        <v>263.3170912342473</v>
       </c>
       <c r="V43" t="n">
-        <v>291.2878545054629</v>
+        <v>106.3660657120151</v>
       </c>
       <c r="W43" t="n">
-        <v>225.1928478324557</v>
+        <v>40.27105903900788</v>
       </c>
       <c r="X43" t="n">
-        <v>219.6556360635963</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.7606684127771</v>
+        <v>34.73384727014844</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>981.325790171824</v>
+        <v>981.3257901718241</v>
       </c>
       <c r="C44" t="n">
-        <v>833.5211685578802</v>
+        <v>833.5211685578804</v>
       </c>
       <c r="D44" t="n">
-        <v>696.2017620190318</v>
+        <v>696.201762019032</v>
       </c>
       <c r="E44" t="n">
-        <v>532.1012413380729</v>
+        <v>532.1012413380731</v>
       </c>
       <c r="F44" t="n">
-        <v>343.5806926518078</v>
+        <v>343.580692651808</v>
       </c>
       <c r="G44" t="n">
         <v>147.9551127847639</v>
       </c>
       <c r="H44" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I44" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J44" t="n">
         <v>78.35571108260902</v>
@@ -7667,7 +7667,7 @@
         <v>1645.789728909702</v>
       </c>
       <c r="Q44" t="n">
-        <v>1706.141206686385</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="R44" t="n">
         <v>1736.692363507422</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>794.7529946226582</v>
+        <v>389.3994382500192</v>
       </c>
       <c r="C45" t="n">
-        <v>621.9998795444753</v>
+        <v>216.6463231718364</v>
       </c>
       <c r="D45" t="n">
-        <v>474.4115729034193</v>
+        <v>216.6463231718364</v>
       </c>
       <c r="E45" t="n">
-        <v>316.8020439062739</v>
+        <v>171.8462539228908</v>
       </c>
       <c r="F45" t="n">
         <v>171.8462539228908</v>
       </c>
       <c r="G45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="H45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I45" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J45" t="n">
-        <v>34.73384727014845</v>
+        <v>68.49677569904708</v>
       </c>
       <c r="K45" t="n">
-        <v>34.73384727014845</v>
+        <v>252.8086112964361</v>
       </c>
       <c r="L45" t="n">
-        <v>307.6917422488779</v>
+        <v>252.8086112964361</v>
       </c>
       <c r="M45" t="n">
-        <v>720.7064880385478</v>
+        <v>665.8233570861059</v>
       </c>
       <c r="N45" t="n">
-        <v>1150.537848006635</v>
+        <v>1033.731744884326</v>
       </c>
       <c r="O45" t="n">
-        <v>1484.82444182232</v>
+        <v>1368.018338700011</v>
       </c>
       <c r="P45" t="n">
-        <v>1736.692363507422</v>
+        <v>1619.886260385114</v>
       </c>
       <c r="Q45" t="n">
         <v>1736.692363507422</v>
       </c>
       <c r="R45" t="n">
-        <v>1736.692363507422</v>
+        <v>1658.721922193371</v>
       </c>
       <c r="S45" t="n">
-        <v>1571.313644276726</v>
+        <v>1658.721922193371</v>
       </c>
       <c r="T45" t="n">
-        <v>1372.075093003544</v>
+        <v>1459.483370920188</v>
       </c>
       <c r="U45" t="n">
-        <v>1145.167386743401</v>
+        <v>1232.575664660046</v>
       </c>
       <c r="V45" t="n">
-        <v>991.4226431875132</v>
+        <v>998.3244211856463</v>
       </c>
       <c r="W45" t="n">
-        <v>961.7955457442187</v>
+        <v>968.6973237423517</v>
       </c>
       <c r="X45" t="n">
-        <v>961.7955457442187</v>
+        <v>762.1704251479292</v>
       </c>
       <c r="Y45" t="n">
-        <v>961.7955457442187</v>
+        <v>556.4419893715797</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="C46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="D46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="E46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="F46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="G46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="H46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="I46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="J46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="K46" t="n">
-        <v>47.29315300457173</v>
+        <v>47.29315300457171</v>
       </c>
       <c r="L46" t="n">
         <v>119.1683554634467</v>
@@ -7825,31 +7825,31 @@
         <v>396.6643578261316</v>
       </c>
       <c r="Q46" t="n">
-        <v>396.6643578261316</v>
+        <v>336.0897250743093</v>
       </c>
       <c r="R46" t="n">
-        <v>396.6643578261316</v>
+        <v>211.7425690326839</v>
       </c>
       <c r="S46" t="n">
-        <v>211.7425690326841</v>
+        <v>211.7425690326839</v>
       </c>
       <c r="T46" t="n">
-        <v>205.0112057180717</v>
+        <v>205.0112057180716</v>
       </c>
       <c r="U46" t="n">
-        <v>138.969935192622</v>
+        <v>138.9699351926219</v>
       </c>
       <c r="V46" t="n">
-        <v>106.3660657120152</v>
+        <v>106.3660657120151</v>
       </c>
       <c r="W46" t="n">
-        <v>40.27105903900792</v>
+        <v>40.27105903900788</v>
       </c>
       <c r="X46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.73384727014845</v>
+        <v>34.73384727014844</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>171.1697838000134</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8705,7 +8705,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
-        <v>329.979960519398</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8766,19 +8766,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.0307086440266</v>
+        <v>97.03070864402656</v>
       </c>
       <c r="K12" t="n">
-        <v>88.87027518258793</v>
+        <v>88.87027518258787</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>323.0192653848325</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>417.2735890537162</v>
+        <v>479.928282784482</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8933,7 +8933,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>467.4940748325458</v>
+        <v>462.8033788536023</v>
       </c>
       <c r="N14" t="n">
         <v>454.8408013884635</v>
@@ -8942,7 +8942,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
-        <v>329.9799605193974</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
         <v>220.8075902863009</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9012,19 +9012,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>484.3332662999999</v>
+        <v>117.5190385089345</v>
       </c>
       <c r="N15" t="n">
-        <v>451.4080917393876</v>
+        <v>479.928282784482</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>76.78923727937016</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9170,10 +9170,10 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>467.4940748325458</v>
+        <v>462.8033788536023</v>
       </c>
       <c r="N17" t="n">
-        <v>450.1501054095189</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
         <v>396.0321885132552</v>
@@ -9249,10 +9249,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>83.41507039893514</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.9282827844816</v>
+        <v>79.01008688341793</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9404,7 +9404,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
-        <v>434.3676631324684</v>
+        <v>429.6769671535247</v>
       </c>
       <c r="M20" t="n">
         <v>467.4940748325458</v>
@@ -9419,7 +9419,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.1168943073563</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,7 +9477,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>102.6144857089312</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9489,16 +9489,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.9282827844816</v>
+        <v>79.01008688341793</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>76.78923727937016</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>171.1697838000121</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1112290740114</v>
+        <v>332.4205330950678</v>
       </c>
       <c r="L23" t="n">
         <v>434.3676631324684</v>
@@ -9723,10 +9723,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>421.678572569234</v>
+        <v>303.6926098194285</v>
       </c>
       <c r="N24" t="n">
-        <v>479.9282827844816</v>
+        <v>479.928282784482</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9735,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,13 +10662,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.03070864402655</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>189.4292978455056</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>73.87636778514675</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10680,10 +10680,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>85.87907026731261</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10902,25 +10902,25 @@
         <v>97.03070864402655</v>
       </c>
       <c r="K39" t="n">
-        <v>88.87027518258785</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>484.3332662999999</v>
+        <v>121.0250944319717</v>
       </c>
       <c r="N39" t="n">
-        <v>481.1129228403885</v>
+        <v>481.1129228403886</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>272.0526415778064</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,28 +11136,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>97.03070864402655</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>88.87027518258785</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>484.3332662999999</v>
+        <v>109.9872182323102</v>
       </c>
       <c r="N42" t="n">
-        <v>488.9065852947347</v>
+        <v>488.9065852947346</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>295.118733488144</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,19 +11373,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>97.03070864402655</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>88.87027518258785</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>349.5914132182069</v>
+        <v>73.87636778514675</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>488.9065852947347</v>
+        <v>426.3581285574955</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5378344848626</v>
+        <v>261.5378344848627</v>
       </c>
       <c r="C11" t="n">
-        <v>244.8065201724102</v>
+        <v>244.8065201724103</v>
       </c>
       <c r="D11" t="n">
         <v>234.426157248066</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.9394602487551</v>
       </c>
       <c r="F11" t="n">
-        <v>285.1152879740084</v>
+        <v>285.1152879740085</v>
       </c>
       <c r="G11" t="n">
-        <v>25.09660071864647</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.73160841495374</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.67916269170989</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47994477460603</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3515414940222</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>99.93618101527485</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>22.34273409481909</v>
       </c>
       <c r="C14" t="n">
-        <v>244.8065201724102</v>
+        <v>244.8065201724103</v>
       </c>
       <c r="D14" t="n">
-        <v>234.426157248066</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>260.939460248755</v>
+        <v>260.9394602487551</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.1152879740085</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.5689976340753</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.73160841495373</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.47994477460604</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3515414940222</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.683023624637</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>232.2863467704413</v>
+        <v>264.5084962447035</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.415975102050642e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753776.6580810002</v>
+        <v>753776.6580810004</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753776.6580810002</v>
+        <v>753776.6580810003</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>851849.3578141171</v>
+        <v>851849.3578141172</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>851849.3578141171</v>
+        <v>851849.3578141172</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>851849.3578141171</v>
+        <v>851849.3578141172</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730940.7399801661</v>
+        <v>730940.7399801662</v>
       </c>
       <c r="C2" t="n">
-        <v>730940.7399801664</v>
+        <v>730940.7399801663</v>
       </c>
       <c r="D2" t="n">
-        <v>730940.7399801665</v>
+        <v>730940.7399801662</v>
       </c>
       <c r="E2" t="n">
-        <v>628685.7856830845</v>
+        <v>628685.7856830842</v>
       </c>
       <c r="F2" t="n">
-        <v>628685.7856830845</v>
+        <v>628685.7856830847</v>
       </c>
       <c r="G2" t="n">
+        <v>732527.4677534433</v>
+      </c>
+      <c r="H2" t="n">
+        <v>732527.4677534432</v>
+      </c>
+      <c r="I2" t="n">
         <v>732527.4677534431</v>
       </c>
-      <c r="H2" t="n">
-        <v>732527.4677534428</v>
-      </c>
-      <c r="I2" t="n">
-        <v>732527.4677534429</v>
-      </c>
       <c r="J2" t="n">
-        <v>732527.4677534443</v>
+        <v>732527.4677534442</v>
       </c>
       <c r="K2" t="n">
-        <v>732527.4677534428</v>
+        <v>732527.4677534435</v>
       </c>
       <c r="L2" t="n">
         <v>732527.4677534431</v>
       </c>
       <c r="M2" t="n">
-        <v>732527.4677534424</v>
+        <v>732527.4677534429</v>
       </c>
       <c r="N2" t="n">
-        <v>732527.4677534429</v>
+        <v>732527.4677534426</v>
       </c>
       <c r="O2" t="n">
-        <v>732527.4677534427</v>
+        <v>732527.4677534426</v>
       </c>
       <c r="P2" t="n">
-        <v>732527.4677534429</v>
+        <v>732527.4677534428</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>329999.9964321815</v>
+        <v>329999.9964321817</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>81106.82224513746</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>110158.5909185751</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>81106.82224513747</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>110158.5909185752</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>81106.82224513747</v>
+        <v>81106.82224513739</v>
       </c>
       <c r="M3" t="n">
-        <v>97223.33570367841</v>
+        <v>97223.33570367849</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32405.88661632407</v>
+        <v>32405.88661632399</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>437925.5187494541</v>
       </c>
       <c r="E4" t="n">
-        <v>313065.3713775416</v>
+        <v>313065.3713775415</v>
       </c>
       <c r="F4" t="n">
         <v>313065.3713775415</v>
       </c>
       <c r="G4" t="n">
-        <v>378659.4070415491</v>
+        <v>378659.407041549</v>
       </c>
       <c r="H4" t="n">
-        <v>378659.4070415491</v>
+        <v>378659.407041549</v>
       </c>
       <c r="I4" t="n">
         <v>378659.407041549</v>
@@ -26448,13 +26448,13 @@
         <v>378057.7732182547</v>
       </c>
       <c r="M4" t="n">
-        <v>378597.65461573</v>
+        <v>378597.6546157301</v>
       </c>
       <c r="N4" t="n">
-        <v>378597.65461573</v>
+        <v>378597.6546157302</v>
       </c>
       <c r="O4" t="n">
-        <v>378488.0464557405</v>
+        <v>378488.0464557404</v>
       </c>
       <c r="P4" t="n">
         <v>378488.0464557404</v>
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38980.63494425711</v>
+        <v>38980.63494425713</v>
       </c>
       <c r="F5" t="n">
-        <v>38980.63494425712</v>
+        <v>38980.63494425713</v>
       </c>
       <c r="G5" t="n">
-        <v>47503.8467434152</v>
+        <v>47503.84674341521</v>
       </c>
       <c r="H5" t="n">
-        <v>47503.8467434152</v>
+        <v>47503.84674341521</v>
       </c>
       <c r="I5" t="n">
-        <v>47503.8467434152</v>
+        <v>47503.84674341521</v>
       </c>
       <c r="J5" t="n">
-        <v>58687.82962108243</v>
+        <v>58687.82962108242</v>
       </c>
       <c r="K5" t="n">
         <v>58687.82962108242</v>
       </c>
       <c r="L5" t="n">
-        <v>58687.82962108242</v>
+        <v>58687.82962108243</v>
       </c>
       <c r="M5" t="n">
         <v>47543.66496614261</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259387.621230712</v>
+        <v>259383.2136535641</v>
       </c>
       <c r="C6" t="n">
-        <v>259387.6212307123</v>
+        <v>259383.2136535642</v>
       </c>
       <c r="D6" t="n">
-        <v>259387.6212307124</v>
+        <v>259383.2136535641</v>
       </c>
       <c r="E6" t="n">
-        <v>-53360.21707089567</v>
+        <v>-53648.66618775832</v>
       </c>
       <c r="F6" t="n">
-        <v>276639.779361286</v>
+        <v>276351.3302444241</v>
       </c>
       <c r="G6" t="n">
-        <v>225257.3917233413</v>
+        <v>225257.3917233417</v>
       </c>
       <c r="H6" t="n">
-        <v>306364.2139684785</v>
+        <v>306364.213968479</v>
       </c>
       <c r="I6" t="n">
-        <v>306364.2139684787</v>
+        <v>306364.2139684788</v>
       </c>
       <c r="J6" t="n">
-        <v>185623.273995532</v>
+        <v>185623.2739955321</v>
       </c>
       <c r="K6" t="n">
-        <v>295781.8649141057</v>
+        <v>295781.8649141064</v>
       </c>
       <c r="L6" t="n">
-        <v>214675.0426689686</v>
+        <v>214675.0426689685</v>
       </c>
       <c r="M6" t="n">
-        <v>209162.8124678913</v>
+        <v>209162.8124678918</v>
       </c>
       <c r="N6" t="n">
-        <v>306386.1481715703</v>
+        <v>306386.1481715698</v>
       </c>
       <c r="O6" t="n">
-        <v>273827.9084672413</v>
+        <v>273827.9084672414</v>
       </c>
       <c r="P6" t="n">
         <v>306233.7950835656</v>
@@ -26698,19 +26698,19 @@
         <v>122.1785755065324</v>
       </c>
       <c r="G2" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="H2" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="I2" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="J2" t="n">
+        <v>142.0669156854363</v>
+      </c>
+      <c r="K2" t="n">
         <v>142.0669156854364</v>
-      </c>
-      <c r="K2" t="n">
-        <v>142.0669156854363</v>
       </c>
       <c r="L2" t="n">
         <v>142.0669156854363</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618812</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="F3" t="n">
         <v>131.0716122618815</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.1947883666025</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="F4" t="n">
-        <v>425.1947883666025</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="G4" t="n">
-        <v>425.1947883666025</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="H4" t="n">
-        <v>425.1947883666025</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="I4" t="n">
-        <v>425.1947883666025</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="J4" t="n">
-        <v>721.8263970232642</v>
+        <v>721.8263970232641</v>
       </c>
       <c r="K4" t="n">
-        <v>721.8263970232642</v>
+        <v>721.8263970232641</v>
       </c>
       <c r="L4" t="n">
-        <v>721.8263970232642</v>
+        <v>721.8263970232643</v>
       </c>
       <c r="M4" t="n">
         <v>426.3794284225095</v>
       </c>
       <c r="N4" t="n">
-        <v>426.3794284225094</v>
+        <v>426.3794284225095</v>
       </c>
       <c r="O4" t="n">
-        <v>434.1730908768556</v>
+        <v>434.1730908768555</v>
       </c>
       <c r="P4" t="n">
-        <v>434.1730908768556</v>
+        <v>434.1730908768555</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>122.1785755065324</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>101.3835278064218</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40.6833878790145</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>101.3835278064219</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40.68338787901448</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>101.3835278064219</v>
+        <v>101.3835278064217</v>
       </c>
       <c r="M2" t="n">
-        <v>81.11207503343761</v>
+        <v>81.11207503343763</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.16291744127901</v>
+        <v>38.16291744127898</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618812</v>
+        <v>131.0716122618814</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.1947883666025</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.6316086566617</v>
+        <v>296.6316086566613</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.7478197658478</v>
+        <v>129.747819765848</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.79366245434619</v>
+        <v>7.793662454345963</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>122.1785755065324</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>101.3835278064218</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>40.6833878790145</v>
+      </c>
+      <c r="P2" t="n">
         <v>2.842170943040401e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>101.3835278064219</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>40.68338787901448</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>425.1947883666025</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>10.26427957012541</v>
+        <v>87.4550164710345</v>
       </c>
       <c r="D12" t="n">
         <v>122.1785755065324</v>
@@ -28187,7 +28187,7 @@
         <v>107.7396882560888</v>
       </c>
       <c r="I12" t="n">
-        <v>76.79682501022857</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,22 +28214,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.19073690091017</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>122.1785755065324</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>122.1785755065324</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>122.1785755065324</v>
       </c>
-      <c r="T15" t="n">
-        <v>87.45501647103531</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>87.45501647103434</v>
       </c>
     </row>
     <row r="16">
@@ -28521,13 +28521,13 @@
         <v>122.1785755065324</v>
       </c>
       <c r="O16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.178575506532</v>
       </c>
       <c r="P16" t="n">
         <v>122.1785755065324</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.178575506531</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="R16" t="n">
         <v>122.1785755065324</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="C17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="D17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="E17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="F17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="G17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="H17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="I17" t="n">
         <v>184.9101839214861</v>
@@ -28618,19 +28618,19 @@
         <v>220.6585202811384</v>
       </c>
       <c r="U17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,10 +28649,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.7412825862149</v>
@@ -28661,7 +28661,7 @@
         <v>107.7396882560888</v>
       </c>
       <c r="I18" t="n">
-        <v>33.54257873890008</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,19 +28691,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.246165760451</v>
+        <v>139.8175242935409</v>
       </c>
       <c r="U18" t="n">
-        <v>223.5621033129543</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>167.6532302850457</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>159.5326287828165</v>
       </c>
       <c r="I19" t="n">
         <v>146.6505977258904</v>
@@ -28773,19 +28773,19 @@
         <v>218.2383203924713</v>
       </c>
       <c r="T19" t="n">
-        <v>223.5621033129543</v>
+        <v>25.97161724836207</v>
       </c>
       <c r="U19" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V19" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W19" t="n">
-        <v>185.5042460311782</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X19" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="C20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="D20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="E20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="F20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="G20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="H20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="I20" t="n">
         <v>184.9101839214861</v>
@@ -28855,19 +28855,19 @@
         <v>220.6585202811384</v>
       </c>
       <c r="U20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -28892,10 +28892,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>76.79682501022856</v>
@@ -28928,10 +28928,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>45.77732249612714</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28940,13 +28940,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>64.96147646794685</v>
       </c>
     </row>
     <row r="22">
@@ -28974,10 +28974,10 @@
         <v>167.6532302850457</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>159.5326287828165</v>
       </c>
       <c r="I22" t="n">
-        <v>108.5927404441144</v>
+        <v>146.6505977258904</v>
       </c>
       <c r="J22" t="n">
         <v>72.12828872186661</v>
@@ -29010,19 +29010,19 @@
         <v>218.2383203924713</v>
       </c>
       <c r="T22" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="U22" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V22" t="n">
-        <v>223.5621033129543</v>
+        <v>25.97161724836209</v>
       </c>
       <c r="W22" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X22" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="C23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="D23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="E23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="F23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="G23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="H23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="I23" t="n">
         <v>184.9101839214861</v>
@@ -29092,19 +29092,19 @@
         <v>220.6585202811384</v>
       </c>
       <c r="U23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>117.4979958535</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>12.39700063768838</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>223.5621033129543</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29202,10 +29202,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>95.54315951841113</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>167.6532302850457</v>
@@ -29247,19 +29247,19 @@
         <v>218.2383203924713</v>
       </c>
       <c r="T25" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="U25" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="V25" t="n">
-        <v>223.5621033129543</v>
+        <v>25.97161724836209</v>
       </c>
       <c r="W25" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="X25" t="n">
-        <v>223.5621033129543</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="C26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="D26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="E26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="F26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="G26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="H26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="I26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="J26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="K26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="L26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854358</v>
       </c>
       <c r="M26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="N26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="O26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="P26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.0669156854353</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="R26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="S26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="T26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="U26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="V26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="W26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="X26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>142.0669156854364</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>131.5604578551338</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>107.7396882560888</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>131.1665459644524</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="C28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="E28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="F28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="I28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="J28" t="n">
-        <v>142.0669156854364</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="L28" t="n">
-        <v>142.0669156854364</v>
+        <v>12.35818787844994</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>84.48647660031614</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="R28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="S28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="T28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="U28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="V28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="W28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="X28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="L29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="M29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="N29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="O29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="P29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="R29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H30" t="n">
         <v>107.7396882560888</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>66.29036717992599</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,10 +29636,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>124.8409128652308</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29648,13 +29648,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,37 +29667,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="C31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="D31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="E31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="F31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="G31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="I31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="J31" t="n">
-        <v>72.12828872186661</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="K31" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>94.45621713958315</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29706,37 +29706,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="P31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.96888642430407</v>
+        <v>84.48647660031621</v>
       </c>
       <c r="R31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="S31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="T31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="U31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="V31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="W31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="X31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.0669156854363</v>
+        <v>142.0669156854364</v>
       </c>
     </row>
     <row r="32">
@@ -29782,7 +29782,7 @@
         <v>142.0669156854363</v>
       </c>
       <c r="N32" t="n">
-        <v>142.0669156854364</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="O32" t="n">
         <v>142.0669156854363</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>20.04249352487616</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29837,16 +29837,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="G33" t="n">
-        <v>90.51368543588329</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29879,10 +29879,10 @@
         <v>142.0669156854363</v>
       </c>
       <c r="T33" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29928,22 +29928,22 @@
         <v>142.0669156854363</v>
       </c>
       <c r="J34" t="n">
-        <v>72.12828872186661</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="K34" t="n">
+        <v>84.48647660031801</v>
+      </c>
+      <c r="L34" t="n">
         <v>142.0669156854363</v>
       </c>
-      <c r="L34" t="n">
-        <v>12.35818787845088</v>
-      </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>142.0669156854363</v>
-      </c>
-      <c r="N34" t="n">
-        <v>142.0669156854363</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I36" t="n">
         <v>76.79682501022856</v>
@@ -30113,25 +30113,25 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S36" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>187.3072699860805</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>223.1789907188739</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>23.12824751656206</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30156,7 +30156,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.6532302850457</v>
       </c>
       <c r="H37" t="n">
         <v>159.5326287828165</v>
@@ -30198,7 +30198,7 @@
         <v>223.1789907188739</v>
       </c>
       <c r="U37" t="n">
-        <v>195.1572979097288</v>
+        <v>27.50406762468316</v>
       </c>
       <c r="V37" t="n">
         <v>223.1789907188739</v>
@@ -30305,22 +30305,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,25 +30347,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>30.86459501109609</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>223.1789907188739</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>171.9076941411946</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -30429,7 +30429,7 @@
         <v>162.7636035017943</v>
       </c>
       <c r="S40" t="n">
-        <v>218.2383203924713</v>
+        <v>22.56339729828042</v>
       </c>
       <c r="T40" t="n">
         <v>223.1789907188739</v>
@@ -30447,7 +30447,7 @@
         <v>223.1789907188739</v>
       </c>
       <c r="Y40" t="n">
-        <v>23.0737507735775</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -30478,13 +30478,13 @@
         <v>220.6585202811384</v>
       </c>
       <c r="I41" t="n">
-        <v>215.7699382861699</v>
+        <v>184.9101839214861</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>30.85975436468334</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -30545,19 +30545,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>118.421543299172</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,10 +30590,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>28.44333006949586</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30618,7 +30618,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.96888642430407</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>162.7636035017943</v>
@@ -30675,7 +30675,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="V43" t="n">
-        <v>220.6585202811384</v>
+        <v>97.55483579992926</v>
       </c>
       <c r="W43" t="n">
         <v>220.6585202811384</v>
@@ -30684,7 +30684,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.0126558934572</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -30739,10 +30739,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>30.85975436468332</v>
       </c>
       <c r="R44" t="n">
-        <v>139.6113723871874</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S44" t="n">
         <v>193.8577381982423</v>
@@ -30779,13 +30779,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>111.6813651507176</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30833,16 +30833,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>79.70143491932666</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>220.6585202811384</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.96888642430407</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>162.7636035017943</v>
+        <v>39.65991902058524</v>
       </c>
       <c r="S46" t="n">
-        <v>35.16574948695822</v>
+        <v>218.2383203924713</v>
       </c>
       <c r="T46" t="n">
         <v>220.6585202811384</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.52692105431912</v>
+        <v>0.5269210543191208</v>
       </c>
       <c r="H11" t="n">
-        <v>5.396330247545689</v>
+        <v>5.396330247545698</v>
       </c>
       <c r="I11" t="n">
-        <v>20.31412394663789</v>
+        <v>20.31412394663792</v>
       </c>
       <c r="J11" t="n">
-        <v>44.72176583401745</v>
+        <v>44.72176583401752</v>
       </c>
       <c r="K11" t="n">
-        <v>67.02633406334581</v>
+        <v>67.02633406334591</v>
       </c>
       <c r="L11" t="n">
-        <v>83.15209427946461</v>
+        <v>83.15209427946473</v>
       </c>
       <c r="M11" t="n">
-        <v>92.52272657921225</v>
+        <v>92.52272657921239</v>
       </c>
       <c r="N11" t="n">
-        <v>94.01984102479645</v>
+        <v>94.01984102479659</v>
       </c>
       <c r="O11" t="n">
-        <v>88.78026979091069</v>
+        <v>88.78026979091084</v>
       </c>
       <c r="P11" t="n">
-        <v>75.77190626240741</v>
+        <v>75.77190626240753</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.90154600460391</v>
+        <v>56.90154600460399</v>
       </c>
       <c r="R11" t="n">
-        <v>33.09920467837345</v>
+        <v>33.0992046783735</v>
       </c>
       <c r="S11" t="n">
-        <v>12.00721352529696</v>
+        <v>12.00721352529698</v>
       </c>
       <c r="T11" t="n">
-        <v>2.306596915281949</v>
+        <v>2.306596915281952</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04215368434552959</v>
+        <v>0.04215368434552966</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2819276188274426</v>
+        <v>0.281927618827443</v>
       </c>
       <c r="H12" t="n">
-        <v>2.722827266043986</v>
+        <v>2.72282726604399</v>
       </c>
       <c r="I12" t="n">
-        <v>9.70671845524309</v>
+        <v>9.706718455243106</v>
       </c>
       <c r="J12" t="n">
-        <v>26.63597735597343</v>
+        <v>26.63597735597347</v>
       </c>
       <c r="K12" t="n">
-        <v>45.52512781741208</v>
+        <v>45.52512781741215</v>
       </c>
       <c r="L12" t="n">
-        <v>61.21415250023047</v>
+        <v>61.21415250023056</v>
       </c>
       <c r="M12" t="n">
-        <v>71.43402868272524</v>
+        <v>71.43402868272535</v>
       </c>
       <c r="N12" t="n">
-        <v>73.32467486337069</v>
+        <v>73.3246748633708</v>
       </c>
       <c r="O12" t="n">
-        <v>67.07775236198367</v>
+        <v>67.07775236198377</v>
       </c>
       <c r="P12" t="n">
-        <v>53.83580994960174</v>
+        <v>53.83580994960182</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.98781323839425</v>
+        <v>35.98781323839431</v>
       </c>
       <c r="R12" t="n">
-        <v>17.50424286018105</v>
+        <v>17.50424286018107</v>
       </c>
       <c r="S12" t="n">
-        <v>5.236681867255345</v>
+        <v>5.236681867255353</v>
       </c>
       <c r="T12" t="n">
-        <v>1.13636614781763</v>
+        <v>1.136366147817632</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01854786965970018</v>
+        <v>0.01854786965970021</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2363586450624087</v>
+        <v>0.2363586450624091</v>
       </c>
       <c r="H13" t="n">
-        <v>2.101443226100326</v>
+        <v>2.101443226100329</v>
       </c>
       <c r="I13" t="n">
-        <v>7.107949071513166</v>
+        <v>7.107949071513176</v>
       </c>
       <c r="J13" t="n">
-        <v>16.71055620591229</v>
+        <v>16.71055620591232</v>
       </c>
       <c r="K13" t="n">
-        <v>27.46057712634166</v>
+        <v>27.4605771263417</v>
       </c>
       <c r="L13" t="n">
-        <v>35.14008437591484</v>
+        <v>35.1400843759149</v>
       </c>
       <c r="M13" t="n">
-        <v>37.05029197101011</v>
+        <v>37.05029197101017</v>
       </c>
       <c r="N13" t="n">
-        <v>36.1693188394139</v>
+        <v>36.16931883941395</v>
       </c>
       <c r="O13" t="n">
-        <v>33.40822012209392</v>
+        <v>33.40822012209397</v>
       </c>
       <c r="P13" t="n">
-        <v>28.58650376282077</v>
+        <v>28.58650376282081</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.79181345154406</v>
+        <v>19.79181345154409</v>
       </c>
       <c r="R13" t="n">
-        <v>10.62754416798794</v>
+        <v>10.62754416798795</v>
       </c>
       <c r="S13" t="n">
-        <v>4.119086568951248</v>
+        <v>4.119086568951254</v>
       </c>
       <c r="T13" t="n">
-        <v>1.009896028903019</v>
+        <v>1.00989602890302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01289228973067685</v>
+        <v>0.01289228973067687</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.06248869945504</v>
+        <v>39.37179272051174</v>
       </c>
       <c r="K11" t="n">
-        <v>189.5499583685011</v>
+        <v>189.5499583685012</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6475028161955</v>
+        <v>287.6475028161956</v>
       </c>
       <c r="M11" t="n">
-        <v>335.4292240151672</v>
+        <v>335.4292240151673</v>
       </c>
       <c r="N11" t="n">
-        <v>325.1829054065838</v>
+        <v>325.1829054065839</v>
       </c>
       <c r="O11" t="n">
-        <v>260.4667021680213</v>
+        <v>260.4667021680215</v>
       </c>
       <c r="P11" t="n">
-        <v>180.2996959204177</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.96108866331652</v>
+        <v>60.96108866331661</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>311.7975913304506</v>
+        <v>249.1428975996857</v>
       </c>
       <c r="M12" t="n">
-        <v>417.1866119087573</v>
+        <v>417.1866119087574</v>
       </c>
       <c r="N12" t="n">
-        <v>362.5400946358369</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="O12" t="n">
         <v>337.6632260764491</v>
@@ -35653,7 +35653,7 @@
         <v>287.6475028161956</v>
       </c>
       <c r="M14" t="n">
-        <v>335.4292240151673</v>
+        <v>330.7385280362238</v>
       </c>
       <c r="N14" t="n">
         <v>325.182905406584</v>
@@ -35662,7 +35662,7 @@
         <v>260.4667021680215</v>
       </c>
       <c r="P14" t="n">
-        <v>180.2996959204172</v>
+        <v>184.9903918993617</v>
       </c>
       <c r="Q14" t="n">
         <v>60.96108866331664</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.10396810999863</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>186.1735713104939</v>
@@ -35732,19 +35732,19 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M15" t="n">
-        <v>417.1866119087575</v>
+        <v>50.37238411769205</v>
       </c>
       <c r="N15" t="n">
-        <v>396.6745973215085</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="O15" t="n">
         <v>337.6632260764492</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.0502867846658</v>
+        <v>50.05028678466574</v>
       </c>
       <c r="K16" t="n">
-        <v>134.8647429150408</v>
+        <v>134.8647429150407</v>
       </c>
       <c r="L16" t="n">
-        <v>194.7797901114566</v>
+        <v>194.7797901114565</v>
       </c>
       <c r="M16" t="n">
-        <v>209.4262754744512</v>
+        <v>209.4262754744511</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5449140105843</v>
+        <v>212.5449140105842</v>
       </c>
       <c r="O16" t="n">
-        <v>190.1550036585975</v>
+        <v>190.1550036585971</v>
       </c>
       <c r="P16" t="n">
-        <v>156.8871011680371</v>
+        <v>156.887101168037</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20968908222688</v>
+        <v>62.20968908222828</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>287.6475028161956</v>
       </c>
       <c r="M17" t="n">
-        <v>335.4292240151673</v>
+        <v>330.7385280362238</v>
       </c>
       <c r="N17" t="n">
-        <v>320.4922094276394</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O17" t="n">
         <v>260.4667021680215</v>
@@ -35969,10 +35969,10 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M18" t="n">
-        <v>16.26841600769267</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N18" t="n">
-        <v>425.1947883666025</v>
+        <v>24.2765924655388</v>
       </c>
       <c r="O18" t="n">
         <v>337.6632260764492</v>
@@ -36124,7 +36124,7 @@
         <v>189.5499583685013</v>
       </c>
       <c r="L20" t="n">
-        <v>287.6475028161956</v>
+        <v>282.956806837252</v>
       </c>
       <c r="M20" t="n">
         <v>335.4292240151673</v>
@@ -36139,7 +36139,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.27039268437206</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5.583777064904649</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K21" t="n">
         <v>186.1735713104939</v>
@@ -36209,16 +36209,16 @@
         <v>417.1866119087575</v>
       </c>
       <c r="N21" t="n">
-        <v>425.1947883666025</v>
+        <v>24.2765924655388</v>
       </c>
       <c r="O21" t="n">
         <v>337.6632260764492</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.37179272051044</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K23" t="n">
-        <v>189.5499583685013</v>
+        <v>184.8592623895577</v>
       </c>
       <c r="L23" t="n">
         <v>287.6475028161956</v>
@@ -36443,10 +36443,10 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M24" t="n">
-        <v>354.5319181779915</v>
+        <v>236.545955428186</v>
       </c>
       <c r="N24" t="n">
-        <v>425.1947883666025</v>
+        <v>425.1947883666028</v>
       </c>
       <c r="O24" t="n">
         <v>337.6632260764492</v>
@@ -36455,7 +36455,7 @@
         <v>254.4120421061645</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1294043848915</v>
+        <v>186.1294043848914</v>
       </c>
       <c r="K26" t="n">
         <v>331.6168740539376</v>
       </c>
       <c r="L26" t="n">
-        <v>429.7144185016319</v>
+        <v>429.7144185016314</v>
       </c>
       <c r="M26" t="n">
-        <v>477.4961397006037</v>
+        <v>477.4961397006036</v>
       </c>
       <c r="N26" t="n">
         <v>467.2498210920203</v>
@@ -36610,13 +36610,13 @@
         <v>402.5336178534578</v>
       </c>
       <c r="P26" t="n">
-        <v>327.0573075847981</v>
+        <v>327.057307584798</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.028004348752</v>
+        <v>203.028004348753</v>
       </c>
       <c r="R26" t="n">
-        <v>33.3152976629328</v>
+        <v>33.31529766293277</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.93862696356975</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>154.7530830939447</v>
       </c>
       <c r="L28" t="n">
-        <v>214.6681302903606</v>
+        <v>84.95940248337413</v>
       </c>
       <c r="M28" t="n">
-        <v>87.24769996791875</v>
+        <v>229.3146156533551</v>
       </c>
       <c r="N28" t="n">
-        <v>90.36633850405185</v>
+        <v>232.4332541894882</v>
       </c>
       <c r="O28" t="n">
         <v>67.97642815206505</v>
       </c>
       <c r="P28" t="n">
-        <v>119.1950022618208</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.09802926113228</v>
+        <v>82.09802926113225</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.1294043848914</v>
+        <v>186.1294043848915</v>
       </c>
       <c r="K29" t="n">
         <v>331.6168740539376</v>
@@ -36838,7 +36838,7 @@
         <v>429.7144185016319</v>
       </c>
       <c r="M29" t="n">
-        <v>477.4961397006036</v>
+        <v>477.4961397006037</v>
       </c>
       <c r="N29" t="n">
         <v>467.2498210920203</v>
@@ -36847,13 +36847,13 @@
         <v>402.5336178534578</v>
       </c>
       <c r="P29" t="n">
-        <v>327.057307584798</v>
+        <v>327.0573075847981</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0280043487529</v>
+        <v>203.028004348753</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31529766293275</v>
+        <v>33.31529766293281</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.93862696356975</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7530830939447</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L31" t="n">
-        <v>167.0574317445073</v>
+        <v>214.6681302903606</v>
       </c>
       <c r="M31" t="n">
         <v>87.24769996791875</v>
@@ -37008,7 +37008,7 @@
         <v>176.775441346941</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>24.51759017601213</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>186.1294043848914</v>
       </c>
       <c r="K32" t="n">
-        <v>331.6168740539376</v>
+        <v>331.6168740539375</v>
       </c>
       <c r="L32" t="n">
         <v>429.7144185016319</v>
@@ -37090,7 +37090,7 @@
         <v>203.0280043487529</v>
       </c>
       <c r="R32" t="n">
-        <v>33.31529766293274</v>
+        <v>33.31529766293272</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>69.93862696356966</v>
       </c>
       <c r="K34" t="n">
-        <v>154.7530830939447</v>
+        <v>97.17264400882637</v>
       </c>
       <c r="L34" t="n">
-        <v>84.95940248337507</v>
+        <v>214.6681302903605</v>
       </c>
       <c r="M34" t="n">
-        <v>229.314615653355</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N34" t="n">
-        <v>232.4332541894881</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O34" t="n">
-        <v>67.97642815206505</v>
+        <v>210.0433438375013</v>
       </c>
       <c r="P34" t="n">
         <v>34.70852566150466</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.09802926113223</v>
+        <v>82.0980292611322</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K36" t="n">
-        <v>186.1735713104939</v>
+        <v>100.5590226629177</v>
       </c>
       <c r="L36" t="n">
-        <v>311.7975913304508</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>417.1866119087575</v>
@@ -37400,10 +37400,10 @@
         <v>337.6632260764492</v>
       </c>
       <c r="P36" t="n">
-        <v>9.08983298794246</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L39" t="n">
         <v>311.7975913304508</v>
       </c>
       <c r="M39" t="n">
-        <v>417.1866119087575</v>
+        <v>53.87844004072919</v>
       </c>
       <c r="N39" t="n">
-        <v>426.3794284225094</v>
+        <v>426.3794284225095</v>
       </c>
       <c r="O39" t="n">
         <v>337.6632260764492</v>
       </c>
       <c r="P39" t="n">
-        <v>195.2634042984362</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.85975436468381</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>44.06248869945512</v>
       </c>
       <c r="K41" t="n">
-        <v>189.5499583685013</v>
+        <v>220.4097127331846</v>
       </c>
       <c r="L41" t="n">
         <v>287.6475028161956</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L42" t="n">
         <v>311.7975913304508</v>
       </c>
       <c r="M42" t="n">
-        <v>417.1866119087575</v>
+        <v>42.84056384106768</v>
       </c>
       <c r="N42" t="n">
-        <v>434.1730908768556</v>
+        <v>434.1730908768555</v>
       </c>
       <c r="O42" t="n">
         <v>337.6632260764492</v>
       </c>
       <c r="P42" t="n">
-        <v>218.3294962087739</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,10 +38035,10 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.96108866331664</v>
+        <v>91.82084302799996</v>
       </c>
       <c r="R44" t="n">
-        <v>30.85975436468385</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L45" t="n">
-        <v>275.7150454330601</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>417.1866119087575</v>
       </c>
       <c r="N45" t="n">
-        <v>434.1730908768556</v>
+        <v>371.6246341396164</v>
       </c>
       <c r="O45" t="n">
         <v>337.6632260764492</v>
@@ -38114,7 +38114,7 @@
         <v>254.4120421061645</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
